--- a/developWorkspace/CodeLibrary/CodeGenerator/addinCodeConverter2/dataConvertTools2.xlsx
+++ b/developWorkspace/CodeLibrary/CodeGenerator/addinCodeConverter2/dataConvertTools2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xujingjiang\Source\Repos\developSupportToolls\developWorkspace\bin\Debug\addins\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xujingjiang\Source\Repos\developSupportToolls\developWorkspace\CodeLibrary\CodeGenerator\addinCodeConverter2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1F5486-A3BB-434D-9BF3-7D57F30A2B71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3D61FD-82A0-4CEB-9E03-FAFD0D0169B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>TableInfo{}</t>
   </si>
@@ -159,6 +159,27 @@
   <si>
     <t>CodePath</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Author</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.25"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>s-jingjiang.xu</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\xujingjiang\Source\Repos\developSupportToolls\developWorkspace\bin\Debug\addins</t>
   </si>
 </sst>
 </file>
@@ -394,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -423,6 +444,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -739,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:CV183"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -786,7 +808,7 @@
         <v>41</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -886,10 +908,10 @@
     <row r="5" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B5" s="15"/>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>2</v>
+      <c r="D5" s="28" t="s">
+        <v>43</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="1"/>

--- a/developWorkspace/CodeLibrary/CodeGenerator/addinCodeConverter2/dataConvertTools2.xlsx
+++ b/developWorkspace/CodeLibrary/CodeGenerator/addinCodeConverter2/dataConvertTools2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xujingjiang\Source\Repos\developSupportToolls\developWorkspace\CodeLibrary\CodeGenerator\addinCodeConverter2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xujingjiang\developWorkspace1.3\addins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3D61FD-82A0-4CEB-9E03-FAFD0D0169B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="97">
+  <si>
+    <t>Setting{}</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>rba-bo-api</t>
+  </si>
+  <si>
+    <t>//改成目标项目</t>
+  </si>
+  <si>
+    <t>CodeTempBasePath</t>
+  </si>
+  <si>
+    <t>D:\Users\os-jiangjiang.xu\code\rba-bo-api\src\main</t>
+  </si>
+  <si>
+    <t>//代码生成路径</t>
+  </si>
+  <si>
+    <t>CodeTempPath</t>
+  </si>
+  <si>
+    <t>D:\Users\os-jiangjiang.xu\code\rba-bo-api\src\main\java\jp\co\rakuten\brandavenue\backend\bo\api</t>
+  </si>
+  <si>
+    <t>ResourceTempPath</t>
+  </si>
+  <si>
+    <t>D:\Users\os-jiangjiang.xu\code\rba-bo-api\src\main\resources\jp\co\rakuten\brandavenue\backend\bo\api</t>
+  </si>
+  <si>
+    <t>CodeBasePath</t>
+  </si>
+  <si>
+    <t>D:\Users\os-jiangjiang.xu\git\rba-bo-api-sso\src\main</t>
+  </si>
+  <si>
+    <t>//git项目路径</t>
+  </si>
+  <si>
+    <t>RootPackage</t>
+  </si>
+  <si>
+    <t>jp.co.rakuten.brandavenue.backend.bo.api</t>
+  </si>
+  <si>
+    <t>//命名空间</t>
+  </si>
+  <si>
+    <t>db</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>os-jingjiang.xu</t>
+  </si>
+  <si>
+    <t>DataSource</t>
+  </si>
+  <si>
+    <t>setting…</t>
+  </si>
+  <si>
+    <t>从DB支援工具里面选择你要生成代码的数据信息</t>
+  </si>
   <si>
     <t>TableInfo{}</t>
   </si>
@@ -28,22 +96,22 @@
     <t>TableName</t>
   </si>
   <si>
-    <t>WhereClauseHistories</t>
+    <t>W_BO_AUTH_TOKEN</t>
   </si>
   <si>
     <t>ClassName</t>
   </si>
   <si>
-    <t>Whereclausehistories</t>
+    <t>AuthToken</t>
+  </si>
+  <si>
+    <t>//改写成适当的名字</t>
   </si>
   <si>
     <t>Remark</t>
   </si>
   <si>
-    <t>DataSource</t>
-  </si>
-  <si>
-    <t>setting…</t>
+    <t>local_core</t>
   </si>
   <si>
     <t>Columns[]</t>
@@ -67,84 +135,198 @@
     <t>CameralProperty</t>
   </si>
   <si>
+    <t>SampleData</t>
+  </si>
+  <si>
+    <t>SELECT:selectByModelCd</t>
+  </si>
+  <si>
+    <t>SELECT:selectByPrimaryId</t>
+  </si>
+  <si>
+    <t>UPDATE:update</t>
+  </si>
+  <si>
+    <t>INSERT:insert</t>
+  </si>
+  <si>
+    <t>DELETE:delete</t>
+  </si>
+  <si>
     <t>*</t>
   </si>
   <si>
-    <t>WhereClauseID</t>
+    <t>TOKEN</t>
   </si>
   <si>
-    <t>WHERECLAUSEID</t>
+    <t>JWT仕組みで作成したトークンを格納する</t>
   </si>
   <si>
-    <t>integer</t>
+    <t>varchar2</t>
   </si>
   <si>
-    <t>whereclauseid</t>
+    <t>(N)(0,1000)</t>
   </si>
   <si>
-    <t>Whereclauseid</t>
+    <t>token</t>
   </si>
   <si>
-    <t>ConnectionHistoryID</t>
+    <t>Token</t>
   </si>
   <si>
-    <t>CONNECTIONHISTORYID</t>
+    <t>12345</t>
   </si>
   <si>
-    <t>connectionhistoryid</t>
+    <t>FUNCTION_ID</t>
   </si>
   <si>
-    <t>Connectionhistoryid</t>
+    <t>(N)(0,10)</t>
   </si>
   <si>
-    <t>TABLENAME</t>
+    <t>functionId</t>
   </si>
   <si>
-    <t>nvarchar</t>
+    <t>FunctionId</t>
   </si>
   <si>
-    <t>tablename</t>
+    <t>サンプルブランド</t>
   </si>
   <si>
-    <t>Tablename</t>
+    <t>EXTERNAL_FUNC_URL</t>
   </si>
   <si>
-    <t>WhereClauseString</t>
+    <t>トークン作成時に機能のリダイレクトURL</t>
   </si>
   <si>
-    <t>WHERECLAUSESTRING</t>
+    <t>(N)(0,60)</t>
   </si>
   <si>
-    <t>whereclausestring</t>
+    <t>externalFuncUrl</t>
   </si>
   <si>
-    <t>Whereclausestring</t>
+    <t>ExternalFuncUrl</t>
   </si>
   <si>
-    <t>ViewOrderNum</t>
+    <t>2019/02/13 15:54:06</t>
   </si>
   <si>
-    <t>VIEWORDERNUM</t>
+    <t>EXTERNAL_FUNC_AUTH_STR</t>
   </si>
   <si>
-    <t>int</t>
+    <t>トークン作成時に機能の認可認証用文字列</t>
   </si>
   <si>
-    <t>viewordernum</t>
+    <t>(Y)(0,256)</t>
   </si>
   <si>
-    <t>Viewordernum</t>
+    <t>externalFuncAuthStr</t>
   </si>
   <si>
-    <t>Setting{}</t>
+    <t>ExternalFuncAuthStr</t>
   </si>
   <si>
-    <t>Project</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>USED_FLG</t>
+  </si>
+  <si>
+    <t>0: 未使用　1:使用済み</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>(N)(0,1)</t>
+  </si>
+  <si>
+    <t>usedFlg</t>
+  </si>
+  <si>
+    <t>UsedFlg</t>
+  </si>
+  <si>
+    <t>USED_DT</t>
+  </si>
+  <si>
+    <t>トークンを使用した日時</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>(Y)(0,7)</t>
+  </si>
+  <si>
+    <t>usedDt</t>
+  </si>
+  <si>
+    <t>UsedDt</t>
+  </si>
+  <si>
+    <t>CRT_DT</t>
+  </si>
+  <si>
+    <t>(N)(0,7)</t>
+  </si>
+  <si>
+    <t>crtDt</t>
+  </si>
+  <si>
+    <t>CrtDt</t>
+  </si>
+  <si>
+    <t>CRT_TANTO_SEQ</t>
+  </si>
+  <si>
+    <t>(N)(0,6)</t>
+  </si>
+  <si>
+    <t>crtTantoSeq</t>
+  </si>
+  <si>
+    <t>CrtTantoSeq</t>
+  </si>
+  <si>
+    <t>UPD_DT</t>
+  </si>
+  <si>
+    <t>updDt</t>
+  </si>
+  <si>
+    <t>UpdDt</t>
   </si>
   <si>
     <r>
-      <t>r</t>
+      <t>SQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.25"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型：方法名</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.25"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>步</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.25"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>骤（</t>
     </r>
     <r>
       <rPr>
@@ -152,41 +334,111 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ba-bo-api</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CodePath</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Author</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>o</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
         <sz val="10.25"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
-      <t>s-jingjiang.xu</t>
+      <t>）</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>C:\Users\xujingjiang\Source\Repos\developSupportToolls\developWorkspace\bin\Debug\addins</t>
+    <r>
+      <rPr>
+        <sz val="10.25"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>步</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.25"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>骤（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.25"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.25"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.25"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>步</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.25"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>骤（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.25"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.25"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>winmerger</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\WinMerge\WinMergeU.exe</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10.25"/>
       <name val="Calibri"/>
@@ -199,17 +451,42 @@
     </font>
     <font>
       <sz val="10.25"/>
+      <name val="FangSong"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.25"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.25"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <sz val="10.25"/>
+      <color rgb="FFFF0000"/>
+      <name val="FangSong"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10.25"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,7 +495,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="5"/>
+        <fgColor indexed="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,20 +507,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor indexed="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="0"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -265,13 +576,11 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color indexed="0"/>
-      </right>
-      <top style="thin">
-        <color indexed="0"/>
-      </top>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="0"/>
       </bottom>
@@ -282,6 +591,17 @@
       <right style="thin">
         <color indexed="0"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="0"/>
+      </right>
       <top style="thin">
         <color indexed="0"/>
       </top>
@@ -289,12 +609,31 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="0"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="0"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -311,6 +650,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="0"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -366,88 +716,65 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="0"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="0"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="0"/>
-      </left>
-      <right style="thin">
-        <color indexed="0"/>
-      </right>
-      <top style="thin">
-        <color indexed="0"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="0"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="0"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -463,7 +790,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -479,7 +806,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -491,7 +818,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -538,23 +865,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -590,23 +900,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -758,164 +1051,278 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:CV183"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CW201"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
     <col min="6" max="6" width="26.7109375" customWidth="1"/>
     <col min="7" max="7" width="16.140625" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
-    <col min="9" max="10" width="22.7109375" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" customWidth="1"/>
-    <col min="12" max="100" width="10"/>
+    <col min="9" max="11" width="22.7109375" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" customWidth="1"/>
+    <col min="13" max="13" width="22" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" customWidth="1"/>
+    <col min="17" max="101" width="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
+    <row r="1" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="1"/>
+      <c r="BK1" s="1"/>
+      <c r="BL1" s="1"/>
+      <c r="BM1" s="1"/>
+      <c r="BN1" s="1"/>
+      <c r="BO1" s="1"/>
+      <c r="BP1" s="1"/>
+      <c r="BQ1" s="1"/>
+      <c r="BR1" s="1"/>
+      <c r="BS1" s="1"/>
+      <c r="BT1" s="1"/>
+      <c r="BU1" s="1"/>
+      <c r="BV1" s="1"/>
+      <c r="BW1" s="1"/>
+      <c r="BX1" s="1"/>
+      <c r="BY1" s="1"/>
+      <c r="BZ1" s="1"/>
+      <c r="CA1" s="1"/>
+      <c r="CB1" s="1"/>
+      <c r="CC1" s="1"/>
+      <c r="CD1" s="1"/>
+      <c r="CE1" s="1"/>
+      <c r="CF1" s="1"/>
+      <c r="CG1" s="1"/>
+      <c r="CH1" s="1"/>
+      <c r="CI1" s="1"/>
+      <c r="CJ1" s="1"/>
+      <c r="CK1" s="1"/>
+      <c r="CL1" s="1"/>
+      <c r="CM1" s="1"/>
+      <c r="CN1" s="1"/>
+      <c r="CO1" s="1"/>
+      <c r="CP1" s="1"/>
+      <c r="CQ1" s="1"/>
+      <c r="CR1" s="1"/>
+      <c r="CS1" s="1"/>
+      <c r="CT1" s="1"/>
+      <c r="CU1" s="1"/>
+      <c r="CV1" s="1"/>
+    </row>
+    <row r="2" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="1"/>
+      <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
+      <c r="BM2" s="1"/>
+      <c r="BN2" s="1"/>
+      <c r="BO2" s="1"/>
+      <c r="BP2" s="1"/>
+      <c r="BQ2" s="1"/>
+      <c r="BR2" s="1"/>
+      <c r="BS2" s="1"/>
+      <c r="BT2" s="1"/>
+      <c r="BU2" s="1"/>
+      <c r="BV2" s="1"/>
+      <c r="BW2" s="1"/>
+      <c r="BX2" s="1"/>
+      <c r="BY2" s="1"/>
+      <c r="BZ2" s="1"/>
+      <c r="CA2" s="1"/>
+      <c r="CB2" s="1"/>
+      <c r="CC2" s="1"/>
+      <c r="CD2" s="1"/>
+      <c r="CE2" s="1"/>
+      <c r="CF2" s="1"/>
+      <c r="CG2" s="1"/>
+      <c r="CH2" s="1"/>
+      <c r="CI2" s="1"/>
+      <c r="CJ2" s="1"/>
+      <c r="CK2" s="1"/>
+      <c r="CL2" s="1"/>
+      <c r="CM2" s="1"/>
+      <c r="CN2" s="1"/>
+      <c r="CO2" s="1"/>
+      <c r="CP2" s="1"/>
+      <c r="CQ2" s="1"/>
+      <c r="CR2" s="1"/>
+      <c r="CS2" s="1"/>
+      <c r="CT2" s="1"/>
+      <c r="CU2" s="1"/>
+      <c r="CV2" s="1"/>
     </row>
-    <row r="3" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="2" t="s">
-        <v>39</v>
+    <row r="3" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>40</v>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="B4" s="15"/>
-      <c r="C4" s="2" t="s">
-        <v>41</v>
+    <row r="5" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
+        <v>4</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>44</v>
+      <c r="D5" s="9" t="s">
+        <v>5</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1"/>
-      <c r="AM4" s="1"/>
-      <c r="AN4" s="1"/>
-      <c r="AO4" s="1"/>
-      <c r="AP4" s="1"/>
-      <c r="AQ4" s="1"/>
-      <c r="AR4" s="1"/>
-      <c r="AS4" s="1"/>
-      <c r="AT4" s="1"/>
-      <c r="AU4" s="1"/>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
-      <c r="AX4" s="1"/>
-      <c r="AY4" s="1"/>
-      <c r="AZ4" s="1"/>
-      <c r="BA4" s="1"/>
-      <c r="BB4" s="1"/>
-      <c r="BC4" s="1"/>
-      <c r="BD4" s="1"/>
-      <c r="BE4" s="1"/>
-      <c r="BF4" s="1"/>
-      <c r="BG4" s="1"/>
-      <c r="BH4" s="1"/>
-      <c r="BI4" s="1"/>
-      <c r="BJ4" s="1"/>
-      <c r="BK4" s="1"/>
-      <c r="BL4" s="1"/>
-      <c r="BM4" s="1"/>
-      <c r="BN4" s="1"/>
-      <c r="BO4" s="1"/>
-      <c r="BP4" s="1"/>
-      <c r="BQ4" s="1"/>
-      <c r="BR4" s="1"/>
-      <c r="BS4" s="1"/>
-      <c r="BT4" s="1"/>
-      <c r="BU4" s="1"/>
-      <c r="BV4" s="1"/>
-      <c r="BW4" s="1"/>
-      <c r="BX4" s="1"/>
-      <c r="BY4" s="1"/>
-      <c r="BZ4" s="1"/>
-      <c r="CA4" s="1"/>
-      <c r="CB4" s="1"/>
-      <c r="CC4" s="1"/>
-      <c r="CD4" s="1"/>
-      <c r="CE4" s="1"/>
-      <c r="CF4" s="1"/>
-      <c r="CG4" s="1"/>
-      <c r="CH4" s="1"/>
-      <c r="CI4" s="1"/>
-      <c r="CJ4" s="1"/>
-      <c r="CK4" s="1"/>
-      <c r="CL4" s="1"/>
-      <c r="CM4" s="1"/>
-      <c r="CN4" s="1"/>
-      <c r="CO4" s="1"/>
-      <c r="CP4" s="1"/>
-      <c r="CQ4" s="1"/>
-      <c r="CR4" s="1"/>
-      <c r="CS4" s="1"/>
-      <c r="CT4" s="1"/>
-      <c r="CU4" s="1"/>
-    </row>
-    <row r="5" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="B5" s="15"/>
-      <c r="C5" s="2" t="s">
-        <v>42</v>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="8" t="s">
+        <v>6</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1007,18 +1414,21 @@
       <c r="CS5" s="1"/>
       <c r="CT5" s="1"/>
       <c r="CU5" s="1"/>
+      <c r="CV5" s="1"/>
     </row>
-    <row r="6" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
-      <c r="C6" s="19" t="s">
-        <v>6</v>
+    <row r="6" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>7</v>
+      <c r="D6" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1110,11 +1520,21 @@
       <c r="CS6" s="1"/>
       <c r="CT6" s="1"/>
       <c r="CU6" s="1"/>
+      <c r="CV6" s="1"/>
     </row>
-    <row r="7" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1206,11 +1626,21 @@
       <c r="CS7" s="1"/>
       <c r="CT7" s="1"/>
       <c r="CU7" s="1"/>
+      <c r="CV7" s="1"/>
     </row>
-    <row r="8" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1302,16 +1732,21 @@
       <c r="CS8" s="1"/>
       <c r="CT8" s="1"/>
       <c r="CU8" s="1"/>
+      <c r="CV8" s="1"/>
     </row>
-    <row r="9" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+    <row r="9" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1403,14 +1838,17 @@
       <c r="CS9" s="1"/>
       <c r="CT9" s="1"/>
       <c r="CU9" s="1"/>
+      <c r="CV9" s="1"/>
     </row>
-    <row r="10" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+    <row r="10" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="10"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1504,21 +1942,22 @@
       <c r="CS10" s="1"/>
       <c r="CT10" s="1"/>
       <c r="CU10" s="1"/>
+      <c r="CV10" s="1"/>
     </row>
-    <row r="11" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="27" t="s">
-        <v>0</v>
+    <row r="11" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6" t="s">
+        <v>95</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="14"/>
+      <c r="D11" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1607,23 +2046,22 @@
       <c r="CS11" s="1"/>
       <c r="CT11" s="1"/>
       <c r="CU11" s="1"/>
+      <c r="CV11" s="1"/>
     </row>
-    <row r="12" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="2" t="s">
-        <v>1</v>
+    <row r="12" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6" t="s">
+        <v>18</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>2</v>
+      <c r="D12" s="11" t="s">
+        <v>19</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="12"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1712,23 +2150,22 @@
       <c r="CS12" s="1"/>
       <c r="CT12" s="1"/>
       <c r="CU12" s="1"/>
+      <c r="CV12" s="1"/>
     </row>
-    <row r="13" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="2" t="s">
-        <v>3</v>
+    <row r="13" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+      <c r="C13" s="6" t="s">
+        <v>20</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>4</v>
+      <c r="D13" s="9" t="s">
+        <v>21</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="12"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1817,23 +2254,19 @@
       <c r="CS13" s="1"/>
       <c r="CT13" s="1"/>
       <c r="CU13" s="1"/>
+      <c r="CV13" s="1"/>
     </row>
-    <row r="14" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+    <row r="14" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="12"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -1922,23 +2355,22 @@
       <c r="CS14" s="1"/>
       <c r="CT14" s="1"/>
       <c r="CU14" s="1"/>
+      <c r="CV14" s="1"/>
     </row>
-    <row r="15" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="2" t="s">
-        <v>6</v>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45" t="s">
+        <v>93</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="12"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -2027,37 +2459,26 @@
       <c r="CS15" s="1"/>
       <c r="CT15" s="1"/>
       <c r="CU15" s="1"/>
+      <c r="CV15" s="1"/>
     </row>
-    <row r="16" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="2" t="s">
-        <v>8</v>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13" t="s">
+        <v>22</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>9</v>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="45" t="s">
+        <v>94</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -2144,33 +2565,20 @@
       <c r="CS16" s="1"/>
       <c r="CT16" s="1"/>
       <c r="CU16" s="1"/>
+      <c r="CV16" s="1"/>
     </row>
-    <row r="17" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="10">
-        <v>8</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="17" t="s">
-        <v>20</v>
-      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -2259,36 +2667,27 @@
       <c r="CS17" s="1"/>
       <c r="CT17" s="1"/>
       <c r="CU17" s="1"/>
+      <c r="CV17" s="1"/>
     </row>
-    <row r="18" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="10">
-        <v>8</v>
-      </c>
-      <c r="J18" s="9" t="s">
+      <c r="B18" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="27"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -2372,36 +2771,29 @@
       <c r="CS18" s="1"/>
       <c r="CT18" s="1"/>
       <c r="CU18" s="1"/>
+      <c r="CV18" s="1"/>
     </row>
-    <row r="19" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="9" t="s">
-        <v>1</v>
+      <c r="B19" s="28"/>
+      <c r="C19" s="6" t="s">
+        <v>24</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="D19" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="10">
-        <v>250</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="32"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
@@ -2485,36 +2877,33 @@
       <c r="CS19" s="1"/>
       <c r="CT19" s="1"/>
       <c r="CU19" s="1"/>
+      <c r="CV19" s="1"/>
     </row>
-    <row r="20" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="9" t="s">
+      <c r="B20" s="28"/>
+      <c r="C20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="10">
-        <v>250</v>
+      <c r="D20" s="9" t="s">
+        <v>27</v>
       </c>
-      <c r="J20" s="9" t="s">
-        <v>31</v>
+      <c r="E20" s="43" t="s">
+        <v>28</v>
       </c>
-      <c r="K20" s="17" t="s">
-        <v>32</v>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="44" t="s">
+        <v>91</v>
       </c>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="32"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -2598,36 +2987,29 @@
       <c r="CS20" s="1"/>
       <c r="CT20" s="1"/>
       <c r="CU20" s="1"/>
+      <c r="CV20" s="1"/>
     </row>
-    <row r="21" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="26" t="s">
-        <v>33</v>
+      <c r="B21" s="28"/>
+      <c r="C21" s="6" t="s">
+        <v>29</v>
       </c>
-      <c r="G21" s="26" t="s">
-        <v>34</v>
+      <c r="D21" s="9" t="s">
+        <v>25</v>
       </c>
-      <c r="H21" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21" s="25">
-        <v>4</v>
-      </c>
-      <c r="J21" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="K21" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="32"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -2711,24 +3093,29 @@
       <c r="CS21" s="1"/>
       <c r="CT21" s="1"/>
       <c r="CU21" s="1"/>
+      <c r="CV21" s="1"/>
     </row>
-    <row r="22" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="32"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -2812,24 +3199,53 @@
       <c r="CS22" s="1"/>
       <c r="CT22" s="1"/>
       <c r="CU22" s="1"/>
+      <c r="CV22" s="1"/>
     </row>
-    <row r="23" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="O23" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="P23" s="41" t="s">
+        <v>43</v>
+      </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -2913,24 +3329,47 @@
       <c r="CS23" s="1"/>
       <c r="CT23" s="1"/>
       <c r="CU23" s="1"/>
+      <c r="CV23" s="1"/>
     </row>
-    <row r="24" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="L24" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="N24" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -3014,24 +3453,45 @@
       <c r="CS24" s="1"/>
       <c r="CT24" s="1"/>
       <c r="CU24" s="1"/>
+      <c r="CV24" s="1"/>
     </row>
-    <row r="25" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K25" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="L25" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="M25" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="N25" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="O25" s="37"/>
+      <c r="P25" s="38" t="s">
+        <v>44</v>
+      </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
@@ -3115,24 +3575,41 @@
       <c r="CS25" s="1"/>
       <c r="CT25" s="1"/>
       <c r="CU25" s="1"/>
+      <c r="CV25" s="1"/>
     </row>
-    <row r="26" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K26" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="L26" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="M26" s="38"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -3216,24 +3693,41 @@
       <c r="CS26" s="1"/>
       <c r="CT26" s="1"/>
       <c r="CU26" s="1"/>
+      <c r="CV26" s="1"/>
     </row>
-    <row r="27" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="K27" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="L27" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -3317,24 +3811,41 @@
       <c r="CS27" s="1"/>
       <c r="CT27" s="1"/>
       <c r="CU27" s="1"/>
+      <c r="CV27" s="1"/>
     </row>
-    <row r="28" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="I28" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="J28" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="K28" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="L28" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -3418,24 +3929,39 @@
       <c r="CS28" s="1"/>
       <c r="CT28" s="1"/>
       <c r="CU28" s="1"/>
+      <c r="CV28" s="1"/>
     </row>
-    <row r="29" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="J29" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="K29" s="37"/>
+      <c r="L29" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -3519,24 +4045,35 @@
       <c r="CS29" s="1"/>
       <c r="CT29" s="1"/>
       <c r="CU29" s="1"/>
+      <c r="CV29" s="1"/>
     </row>
-    <row r="30" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="37"/>
+      <c r="G30" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="I30" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="J30" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
@@ -3620,24 +4157,35 @@
       <c r="CS30" s="1"/>
       <c r="CT30" s="1"/>
       <c r="CU30" s="1"/>
+      <c r="CV30" s="1"/>
     </row>
-    <row r="31" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="37"/>
+      <c r="G31" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="I31" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="J31" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -3721,24 +4269,35 @@
       <c r="CS31" s="1"/>
       <c r="CT31" s="1"/>
       <c r="CU31" s="1"/>
+      <c r="CV31" s="1"/>
     </row>
-    <row r="32" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="37"/>
+      <c r="G32" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="I32" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="J32" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -3822,24 +4381,25 @@
       <c r="CS32" s="1"/>
       <c r="CT32" s="1"/>
       <c r="CU32" s="1"/>
+      <c r="CV32" s="1"/>
     </row>
-    <row r="33" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -3923,24 +4483,25 @@
       <c r="CS33" s="1"/>
       <c r="CT33" s="1"/>
       <c r="CU33" s="1"/>
+      <c r="CV33" s="1"/>
     </row>
-    <row r="34" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -4024,24 +4585,25 @@
       <c r="CS34" s="1"/>
       <c r="CT34" s="1"/>
       <c r="CU34" s="1"/>
+      <c r="CV34" s="1"/>
     </row>
-    <row r="35" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -4125,24 +4687,25 @@
       <c r="CS35" s="1"/>
       <c r="CT35" s="1"/>
       <c r="CU35" s="1"/>
+      <c r="CV35" s="1"/>
     </row>
-    <row r="36" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -4226,24 +4789,25 @@
       <c r="CS36" s="1"/>
       <c r="CT36" s="1"/>
       <c r="CU36" s="1"/>
+      <c r="CV36" s="1"/>
     </row>
-    <row r="37" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
@@ -4327,24 +4891,25 @@
       <c r="CS37" s="1"/>
       <c r="CT37" s="1"/>
       <c r="CU37" s="1"/>
+      <c r="CV37" s="1"/>
     </row>
-    <row r="38" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
@@ -4428,24 +4993,25 @@
       <c r="CS38" s="1"/>
       <c r="CT38" s="1"/>
       <c r="CU38" s="1"/>
+      <c r="CV38" s="1"/>
     </row>
-    <row r="39" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
@@ -4529,24 +5095,25 @@
       <c r="CS39" s="1"/>
       <c r="CT39" s="1"/>
       <c r="CU39" s="1"/>
+      <c r="CV39" s="1"/>
     </row>
-    <row r="40" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
@@ -4630,24 +5197,25 @@
       <c r="CS40" s="1"/>
       <c r="CT40" s="1"/>
       <c r="CU40" s="1"/>
+      <c r="CV40" s="1"/>
     </row>
-    <row r="41" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
@@ -4731,24 +5299,25 @@
       <c r="CS41" s="1"/>
       <c r="CT41" s="1"/>
       <c r="CU41" s="1"/>
+      <c r="CV41" s="1"/>
     </row>
-    <row r="42" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
@@ -4832,24 +5401,25 @@
       <c r="CS42" s="1"/>
       <c r="CT42" s="1"/>
       <c r="CU42" s="1"/>
+      <c r="CV42" s="1"/>
     </row>
-    <row r="43" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="37"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
@@ -4933,24 +5503,25 @@
       <c r="CS43" s="1"/>
       <c r="CT43" s="1"/>
       <c r="CU43" s="1"/>
+      <c r="CV43" s="1"/>
     </row>
-    <row r="44" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
@@ -5034,24 +5605,25 @@
       <c r="CS44" s="1"/>
       <c r="CT44" s="1"/>
       <c r="CU44" s="1"/>
+      <c r="CV44" s="1"/>
     </row>
-    <row r="45" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="37"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
@@ -5135,24 +5707,25 @@
       <c r="CS45" s="1"/>
       <c r="CT45" s="1"/>
       <c r="CU45" s="1"/>
+      <c r="CV45" s="1"/>
     </row>
-    <row r="46" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="37"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
@@ -5236,24 +5809,25 @@
       <c r="CS46" s="1"/>
       <c r="CT46" s="1"/>
       <c r="CU46" s="1"/>
+      <c r="CV46" s="1"/>
     </row>
-    <row r="47" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="37"/>
+      <c r="P47" s="37"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
@@ -5337,24 +5911,25 @@
       <c r="CS47" s="1"/>
       <c r="CT47" s="1"/>
       <c r="CU47" s="1"/>
+      <c r="CV47" s="1"/>
     </row>
-    <row r="48" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="37"/>
+      <c r="O48" s="37"/>
+      <c r="P48" s="37"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
@@ -5438,24 +6013,25 @@
       <c r="CS48" s="1"/>
       <c r="CT48" s="1"/>
       <c r="CU48" s="1"/>
+      <c r="CV48" s="1"/>
     </row>
-    <row r="49" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="37"/>
+      <c r="N49" s="37"/>
+      <c r="O49" s="37"/>
+      <c r="P49" s="37"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
@@ -5539,24 +6115,25 @@
       <c r="CS49" s="1"/>
       <c r="CT49" s="1"/>
       <c r="CU49" s="1"/>
+      <c r="CV49" s="1"/>
     </row>
-    <row r="50" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="37"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
@@ -5640,8 +6217,9 @@
       <c r="CS50" s="1"/>
       <c r="CT50" s="1"/>
       <c r="CU50" s="1"/>
+      <c r="CV50" s="1"/>
     </row>
-    <row r="51" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -5741,8 +6319,9 @@
       <c r="CS51" s="1"/>
       <c r="CT51" s="1"/>
       <c r="CU51" s="1"/>
+      <c r="CV51" s="1"/>
     </row>
-    <row r="52" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -5842,8 +6421,9 @@
       <c r="CS52" s="1"/>
       <c r="CT52" s="1"/>
       <c r="CU52" s="1"/>
+      <c r="CV52" s="1"/>
     </row>
-    <row r="53" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -5943,8 +6523,9 @@
       <c r="CS53" s="1"/>
       <c r="CT53" s="1"/>
       <c r="CU53" s="1"/>
+      <c r="CV53" s="1"/>
     </row>
-    <row r="54" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -6044,8 +6625,9 @@
       <c r="CS54" s="1"/>
       <c r="CT54" s="1"/>
       <c r="CU54" s="1"/>
+      <c r="CV54" s="1"/>
     </row>
-    <row r="55" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -6145,8 +6727,9 @@
       <c r="CS55" s="1"/>
       <c r="CT55" s="1"/>
       <c r="CU55" s="1"/>
+      <c r="CV55" s="1"/>
     </row>
-    <row r="56" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -6246,8 +6829,9 @@
       <c r="CS56" s="1"/>
       <c r="CT56" s="1"/>
       <c r="CU56" s="1"/>
+      <c r="CV56" s="1"/>
     </row>
-    <row r="57" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -6347,8 +6931,9 @@
       <c r="CS57" s="1"/>
       <c r="CT57" s="1"/>
       <c r="CU57" s="1"/>
+      <c r="CV57" s="1"/>
     </row>
-    <row r="58" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -6448,8 +7033,9 @@
       <c r="CS58" s="1"/>
       <c r="CT58" s="1"/>
       <c r="CU58" s="1"/>
+      <c r="CV58" s="1"/>
     </row>
-    <row r="59" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -6549,8 +7135,9 @@
       <c r="CS59" s="1"/>
       <c r="CT59" s="1"/>
       <c r="CU59" s="1"/>
+      <c r="CV59" s="1"/>
     </row>
-    <row r="60" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -6650,8 +7237,9 @@
       <c r="CS60" s="1"/>
       <c r="CT60" s="1"/>
       <c r="CU60" s="1"/>
+      <c r="CV60" s="1"/>
     </row>
-    <row r="61" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -6751,8 +7339,9 @@
       <c r="CS61" s="1"/>
       <c r="CT61" s="1"/>
       <c r="CU61" s="1"/>
+      <c r="CV61" s="1"/>
     </row>
-    <row r="62" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -6852,8 +7441,9 @@
       <c r="CS62" s="1"/>
       <c r="CT62" s="1"/>
       <c r="CU62" s="1"/>
+      <c r="CV62" s="1"/>
     </row>
-    <row r="63" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -6953,8 +7543,9 @@
       <c r="CS63" s="1"/>
       <c r="CT63" s="1"/>
       <c r="CU63" s="1"/>
+      <c r="CV63" s="1"/>
     </row>
-    <row r="64" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -7054,8 +7645,9 @@
       <c r="CS64" s="1"/>
       <c r="CT64" s="1"/>
       <c r="CU64" s="1"/>
+      <c r="CV64" s="1"/>
     </row>
-    <row r="65" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -7155,8 +7747,9 @@
       <c r="CS65" s="1"/>
       <c r="CT65" s="1"/>
       <c r="CU65" s="1"/>
+      <c r="CV65" s="1"/>
     </row>
-    <row r="66" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -7256,8 +7849,9 @@
       <c r="CS66" s="1"/>
       <c r="CT66" s="1"/>
       <c r="CU66" s="1"/>
+      <c r="CV66" s="1"/>
     </row>
-    <row r="67" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -7357,8 +7951,9 @@
       <c r="CS67" s="1"/>
       <c r="CT67" s="1"/>
       <c r="CU67" s="1"/>
+      <c r="CV67" s="1"/>
     </row>
-    <row r="68" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -7458,8 +8053,9 @@
       <c r="CS68" s="1"/>
       <c r="CT68" s="1"/>
       <c r="CU68" s="1"/>
+      <c r="CV68" s="1"/>
     </row>
-    <row r="69" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -7559,8 +8155,9 @@
       <c r="CS69" s="1"/>
       <c r="CT69" s="1"/>
       <c r="CU69" s="1"/>
+      <c r="CV69" s="1"/>
     </row>
-    <row r="70" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -7660,8 +8257,9 @@
       <c r="CS70" s="1"/>
       <c r="CT70" s="1"/>
       <c r="CU70" s="1"/>
+      <c r="CV70" s="1"/>
     </row>
-    <row r="71" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -7761,8 +8359,9 @@
       <c r="CS71" s="1"/>
       <c r="CT71" s="1"/>
       <c r="CU71" s="1"/>
+      <c r="CV71" s="1"/>
     </row>
-    <row r="72" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -7862,8 +8461,9 @@
       <c r="CS72" s="1"/>
       <c r="CT72" s="1"/>
       <c r="CU72" s="1"/>
+      <c r="CV72" s="1"/>
     </row>
-    <row r="73" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -7963,8 +8563,9 @@
       <c r="CS73" s="1"/>
       <c r="CT73" s="1"/>
       <c r="CU73" s="1"/>
+      <c r="CV73" s="1"/>
     </row>
-    <row r="74" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -8064,8 +8665,9 @@
       <c r="CS74" s="1"/>
       <c r="CT74" s="1"/>
       <c r="CU74" s="1"/>
+      <c r="CV74" s="1"/>
     </row>
-    <row r="75" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -8165,8 +8767,9 @@
       <c r="CS75" s="1"/>
       <c r="CT75" s="1"/>
       <c r="CU75" s="1"/>
+      <c r="CV75" s="1"/>
     </row>
-    <row r="76" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -8266,8 +8869,9 @@
       <c r="CS76" s="1"/>
       <c r="CT76" s="1"/>
       <c r="CU76" s="1"/>
+      <c r="CV76" s="1"/>
     </row>
-    <row r="77" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -8367,8 +8971,9 @@
       <c r="CS77" s="1"/>
       <c r="CT77" s="1"/>
       <c r="CU77" s="1"/>
+      <c r="CV77" s="1"/>
     </row>
-    <row r="78" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -8468,8 +9073,9 @@
       <c r="CS78" s="1"/>
       <c r="CT78" s="1"/>
       <c r="CU78" s="1"/>
+      <c r="CV78" s="1"/>
     </row>
-    <row r="79" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -8569,8 +9175,9 @@
       <c r="CS79" s="1"/>
       <c r="CT79" s="1"/>
       <c r="CU79" s="1"/>
+      <c r="CV79" s="1"/>
     </row>
-    <row r="80" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -8670,8 +9277,9 @@
       <c r="CS80" s="1"/>
       <c r="CT80" s="1"/>
       <c r="CU80" s="1"/>
+      <c r="CV80" s="1"/>
     </row>
-    <row r="81" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -8771,8 +9379,9 @@
       <c r="CS81" s="1"/>
       <c r="CT81" s="1"/>
       <c r="CU81" s="1"/>
+      <c r="CV81" s="1"/>
     </row>
-    <row r="82" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -8872,8 +9481,9 @@
       <c r="CS82" s="1"/>
       <c r="CT82" s="1"/>
       <c r="CU82" s="1"/>
+      <c r="CV82" s="1"/>
     </row>
-    <row r="83" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -8973,8 +9583,9 @@
       <c r="CS83" s="1"/>
       <c r="CT83" s="1"/>
       <c r="CU83" s="1"/>
+      <c r="CV83" s="1"/>
     </row>
-    <row r="84" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -9074,8 +9685,9 @@
       <c r="CS84" s="1"/>
       <c r="CT84" s="1"/>
       <c r="CU84" s="1"/>
+      <c r="CV84" s="1"/>
     </row>
-    <row r="85" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -9175,8 +9787,9 @@
       <c r="CS85" s="1"/>
       <c r="CT85" s="1"/>
       <c r="CU85" s="1"/>
+      <c r="CV85" s="1"/>
     </row>
-    <row r="86" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -9276,8 +9889,9 @@
       <c r="CS86" s="1"/>
       <c r="CT86" s="1"/>
       <c r="CU86" s="1"/>
+      <c r="CV86" s="1"/>
     </row>
-    <row r="87" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -9377,8 +9991,9 @@
       <c r="CS87" s="1"/>
       <c r="CT87" s="1"/>
       <c r="CU87" s="1"/>
+      <c r="CV87" s="1"/>
     </row>
-    <row r="88" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -9478,8 +10093,9 @@
       <c r="CS88" s="1"/>
       <c r="CT88" s="1"/>
       <c r="CU88" s="1"/>
+      <c r="CV88" s="1"/>
     </row>
-    <row r="89" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -9579,8 +10195,9 @@
       <c r="CS89" s="1"/>
       <c r="CT89" s="1"/>
       <c r="CU89" s="1"/>
+      <c r="CV89" s="1"/>
     </row>
-    <row r="90" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -9680,8 +10297,9 @@
       <c r="CS90" s="1"/>
       <c r="CT90" s="1"/>
       <c r="CU90" s="1"/>
+      <c r="CV90" s="1"/>
     </row>
-    <row r="91" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -9781,8 +10399,9 @@
       <c r="CS91" s="1"/>
       <c r="CT91" s="1"/>
       <c r="CU91" s="1"/>
+      <c r="CV91" s="1"/>
     </row>
-    <row r="92" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -9882,8 +10501,9 @@
       <c r="CS92" s="1"/>
       <c r="CT92" s="1"/>
       <c r="CU92" s="1"/>
+      <c r="CV92" s="1"/>
     </row>
-    <row r="93" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -9983,8 +10603,9 @@
       <c r="CS93" s="1"/>
       <c r="CT93" s="1"/>
       <c r="CU93" s="1"/>
+      <c r="CV93" s="1"/>
     </row>
-    <row r="94" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -10084,8 +10705,9 @@
       <c r="CS94" s="1"/>
       <c r="CT94" s="1"/>
       <c r="CU94" s="1"/>
+      <c r="CV94" s="1"/>
     </row>
-    <row r="95" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -10185,8 +10807,9 @@
       <c r="CS95" s="1"/>
       <c r="CT95" s="1"/>
       <c r="CU95" s="1"/>
+      <c r="CV95" s="1"/>
     </row>
-    <row r="96" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -10286,8 +10909,9 @@
       <c r="CS96" s="1"/>
       <c r="CT96" s="1"/>
       <c r="CU96" s="1"/>
+      <c r="CV96" s="1"/>
     </row>
-    <row r="97" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -10387,8 +11011,9 @@
       <c r="CS97" s="1"/>
       <c r="CT97" s="1"/>
       <c r="CU97" s="1"/>
+      <c r="CV97" s="1"/>
     </row>
-    <row r="98" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -10488,8 +11113,9 @@
       <c r="CS98" s="1"/>
       <c r="CT98" s="1"/>
       <c r="CU98" s="1"/>
+      <c r="CV98" s="1"/>
     </row>
-    <row r="99" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -10589,8 +11215,9 @@
       <c r="CS99" s="1"/>
       <c r="CT99" s="1"/>
       <c r="CU99" s="1"/>
+      <c r="CV99" s="1"/>
     </row>
-    <row r="100" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -10690,8 +11317,9 @@
       <c r="CS100" s="1"/>
       <c r="CT100" s="1"/>
       <c r="CU100" s="1"/>
+      <c r="CV100" s="1"/>
     </row>
-    <row r="101" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -10791,8 +11419,9 @@
       <c r="CS101" s="1"/>
       <c r="CT101" s="1"/>
       <c r="CU101" s="1"/>
+      <c r="CV101" s="1"/>
     </row>
-    <row r="102" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -10892,8 +11521,9 @@
       <c r="CS102" s="1"/>
       <c r="CT102" s="1"/>
       <c r="CU102" s="1"/>
+      <c r="CV102" s="1"/>
     </row>
-    <row r="103" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -10993,8 +11623,9 @@
       <c r="CS103" s="1"/>
       <c r="CT103" s="1"/>
       <c r="CU103" s="1"/>
+      <c r="CV103" s="1"/>
     </row>
-    <row r="104" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -11094,8 +11725,9 @@
       <c r="CS104" s="1"/>
       <c r="CT104" s="1"/>
       <c r="CU104" s="1"/>
+      <c r="CV104" s="1"/>
     </row>
-    <row r="105" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -11195,8 +11827,9 @@
       <c r="CS105" s="1"/>
       <c r="CT105" s="1"/>
       <c r="CU105" s="1"/>
+      <c r="CV105" s="1"/>
     </row>
-    <row r="106" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -11296,8 +11929,9 @@
       <c r="CS106" s="1"/>
       <c r="CT106" s="1"/>
       <c r="CU106" s="1"/>
+      <c r="CV106" s="1"/>
     </row>
-    <row r="107" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -11397,8 +12031,9 @@
       <c r="CS107" s="1"/>
       <c r="CT107" s="1"/>
       <c r="CU107" s="1"/>
+      <c r="CV107" s="1"/>
     </row>
-    <row r="108" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -11498,8 +12133,9 @@
       <c r="CS108" s="1"/>
       <c r="CT108" s="1"/>
       <c r="CU108" s="1"/>
+      <c r="CV108" s="1"/>
     </row>
-    <row r="109" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -11599,8 +12235,9 @@
       <c r="CS109" s="1"/>
       <c r="CT109" s="1"/>
       <c r="CU109" s="1"/>
+      <c r="CV109" s="1"/>
     </row>
-    <row r="110" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -11700,8 +12337,9 @@
       <c r="CS110" s="1"/>
       <c r="CT110" s="1"/>
       <c r="CU110" s="1"/>
+      <c r="CV110" s="1"/>
     </row>
-    <row r="111" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -11801,8 +12439,9 @@
       <c r="CS111" s="1"/>
       <c r="CT111" s="1"/>
       <c r="CU111" s="1"/>
+      <c r="CV111" s="1"/>
     </row>
-    <row r="112" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -11902,8 +12541,9 @@
       <c r="CS112" s="1"/>
       <c r="CT112" s="1"/>
       <c r="CU112" s="1"/>
+      <c r="CV112" s="1"/>
     </row>
-    <row r="113" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -12003,8 +12643,9 @@
       <c r="CS113" s="1"/>
       <c r="CT113" s="1"/>
       <c r="CU113" s="1"/>
+      <c r="CV113" s="1"/>
     </row>
-    <row r="114" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -12104,8 +12745,9 @@
       <c r="CS114" s="1"/>
       <c r="CT114" s="1"/>
       <c r="CU114" s="1"/>
+      <c r="CV114" s="1"/>
     </row>
-    <row r="115" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -12205,8 +12847,9 @@
       <c r="CS115" s="1"/>
       <c r="CT115" s="1"/>
       <c r="CU115" s="1"/>
+      <c r="CV115" s="1"/>
     </row>
-    <row r="116" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -12306,8 +12949,9 @@
       <c r="CS116" s="1"/>
       <c r="CT116" s="1"/>
       <c r="CU116" s="1"/>
+      <c r="CV116" s="1"/>
     </row>
-    <row r="117" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -12407,8 +13051,9 @@
       <c r="CS117" s="1"/>
       <c r="CT117" s="1"/>
       <c r="CU117" s="1"/>
+      <c r="CV117" s="1"/>
     </row>
-    <row r="118" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -12508,8 +13153,9 @@
       <c r="CS118" s="1"/>
       <c r="CT118" s="1"/>
       <c r="CU118" s="1"/>
+      <c r="CV118" s="1"/>
     </row>
-    <row r="119" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -12609,8 +13255,9 @@
       <c r="CS119" s="1"/>
       <c r="CT119" s="1"/>
       <c r="CU119" s="1"/>
+      <c r="CV119" s="1"/>
     </row>
-    <row r="120" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -12710,8 +13357,9 @@
       <c r="CS120" s="1"/>
       <c r="CT120" s="1"/>
       <c r="CU120" s="1"/>
+      <c r="CV120" s="1"/>
     </row>
-    <row r="121" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -12811,8 +13459,9 @@
       <c r="CS121" s="1"/>
       <c r="CT121" s="1"/>
       <c r="CU121" s="1"/>
+      <c r="CV121" s="1"/>
     </row>
-    <row r="122" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -12912,8 +13561,9 @@
       <c r="CS122" s="1"/>
       <c r="CT122" s="1"/>
       <c r="CU122" s="1"/>
+      <c r="CV122" s="1"/>
     </row>
-    <row r="123" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -13013,8 +13663,9 @@
       <c r="CS123" s="1"/>
       <c r="CT123" s="1"/>
       <c r="CU123" s="1"/>
+      <c r="CV123" s="1"/>
     </row>
-    <row r="124" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -13114,8 +13765,9 @@
       <c r="CS124" s="1"/>
       <c r="CT124" s="1"/>
       <c r="CU124" s="1"/>
+      <c r="CV124" s="1"/>
     </row>
-    <row r="125" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -13215,8 +13867,9 @@
       <c r="CS125" s="1"/>
       <c r="CT125" s="1"/>
       <c r="CU125" s="1"/>
+      <c r="CV125" s="1"/>
     </row>
-    <row r="126" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -13316,8 +13969,9 @@
       <c r="CS126" s="1"/>
       <c r="CT126" s="1"/>
       <c r="CU126" s="1"/>
+      <c r="CV126" s="1"/>
     </row>
-    <row r="127" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -13417,8 +14071,9 @@
       <c r="CS127" s="1"/>
       <c r="CT127" s="1"/>
       <c r="CU127" s="1"/>
+      <c r="CV127" s="1"/>
     </row>
-    <row r="128" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -13518,8 +14173,9 @@
       <c r="CS128" s="1"/>
       <c r="CT128" s="1"/>
       <c r="CU128" s="1"/>
+      <c r="CV128" s="1"/>
     </row>
-    <row r="129" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -13619,8 +14275,9 @@
       <c r="CS129" s="1"/>
       <c r="CT129" s="1"/>
       <c r="CU129" s="1"/>
+      <c r="CV129" s="1"/>
     </row>
-    <row r="130" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -13720,8 +14377,9 @@
       <c r="CS130" s="1"/>
       <c r="CT130" s="1"/>
       <c r="CU130" s="1"/>
+      <c r="CV130" s="1"/>
     </row>
-    <row r="131" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -13821,8 +14479,9 @@
       <c r="CS131" s="1"/>
       <c r="CT131" s="1"/>
       <c r="CU131" s="1"/>
+      <c r="CV131" s="1"/>
     </row>
-    <row r="132" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -13922,8 +14581,9 @@
       <c r="CS132" s="1"/>
       <c r="CT132" s="1"/>
       <c r="CU132" s="1"/>
+      <c r="CV132" s="1"/>
     </row>
-    <row r="133" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -14023,8 +14683,9 @@
       <c r="CS133" s="1"/>
       <c r="CT133" s="1"/>
       <c r="CU133" s="1"/>
+      <c r="CV133" s="1"/>
     </row>
-    <row r="134" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -14124,8 +14785,9 @@
       <c r="CS134" s="1"/>
       <c r="CT134" s="1"/>
       <c r="CU134" s="1"/>
+      <c r="CV134" s="1"/>
     </row>
-    <row r="135" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -14225,8 +14887,9 @@
       <c r="CS135" s="1"/>
       <c r="CT135" s="1"/>
       <c r="CU135" s="1"/>
+      <c r="CV135" s="1"/>
     </row>
-    <row r="136" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -14326,8 +14989,9 @@
       <c r="CS136" s="1"/>
       <c r="CT136" s="1"/>
       <c r="CU136" s="1"/>
+      <c r="CV136" s="1"/>
     </row>
-    <row r="137" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -14427,8 +15091,9 @@
       <c r="CS137" s="1"/>
       <c r="CT137" s="1"/>
       <c r="CU137" s="1"/>
+      <c r="CV137" s="1"/>
     </row>
-    <row r="138" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -14528,8 +15193,9 @@
       <c r="CS138" s="1"/>
       <c r="CT138" s="1"/>
       <c r="CU138" s="1"/>
+      <c r="CV138" s="1"/>
     </row>
-    <row r="139" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -14629,8 +15295,9 @@
       <c r="CS139" s="1"/>
       <c r="CT139" s="1"/>
       <c r="CU139" s="1"/>
+      <c r="CV139" s="1"/>
     </row>
-    <row r="140" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -14730,8 +15397,9 @@
       <c r="CS140" s="1"/>
       <c r="CT140" s="1"/>
       <c r="CU140" s="1"/>
+      <c r="CV140" s="1"/>
     </row>
-    <row r="141" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -14831,8 +15499,9 @@
       <c r="CS141" s="1"/>
       <c r="CT141" s="1"/>
       <c r="CU141" s="1"/>
+      <c r="CV141" s="1"/>
     </row>
-    <row r="142" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -14932,8 +15601,9 @@
       <c r="CS142" s="1"/>
       <c r="CT142" s="1"/>
       <c r="CU142" s="1"/>
+      <c r="CV142" s="1"/>
     </row>
-    <row r="143" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -15033,8 +15703,9 @@
       <c r="CS143" s="1"/>
       <c r="CT143" s="1"/>
       <c r="CU143" s="1"/>
+      <c r="CV143" s="1"/>
     </row>
-    <row r="144" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -15134,8 +15805,9 @@
       <c r="CS144" s="1"/>
       <c r="CT144" s="1"/>
       <c r="CU144" s="1"/>
+      <c r="CV144" s="1"/>
     </row>
-    <row r="145" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -15235,8 +15907,9 @@
       <c r="CS145" s="1"/>
       <c r="CT145" s="1"/>
       <c r="CU145" s="1"/>
+      <c r="CV145" s="1"/>
     </row>
-    <row r="146" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -15336,8 +16009,9 @@
       <c r="CS146" s="1"/>
       <c r="CT146" s="1"/>
       <c r="CU146" s="1"/>
+      <c r="CV146" s="1"/>
     </row>
-    <row r="147" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -15437,8 +16111,9 @@
       <c r="CS147" s="1"/>
       <c r="CT147" s="1"/>
       <c r="CU147" s="1"/>
+      <c r="CV147" s="1"/>
     </row>
-    <row r="148" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -15538,8 +16213,9 @@
       <c r="CS148" s="1"/>
       <c r="CT148" s="1"/>
       <c r="CU148" s="1"/>
+      <c r="CV148" s="1"/>
     </row>
-    <row r="149" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -15639,8 +16315,9 @@
       <c r="CS149" s="1"/>
       <c r="CT149" s="1"/>
       <c r="CU149" s="1"/>
+      <c r="CV149" s="1"/>
     </row>
-    <row r="150" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -15740,8 +16417,9 @@
       <c r="CS150" s="1"/>
       <c r="CT150" s="1"/>
       <c r="CU150" s="1"/>
+      <c r="CV150" s="1"/>
     </row>
-    <row r="151" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -15841,8 +16519,9 @@
       <c r="CS151" s="1"/>
       <c r="CT151" s="1"/>
       <c r="CU151" s="1"/>
+      <c r="CV151" s="1"/>
     </row>
-    <row r="152" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -15942,8 +16621,9 @@
       <c r="CS152" s="1"/>
       <c r="CT152" s="1"/>
       <c r="CU152" s="1"/>
+      <c r="CV152" s="1"/>
     </row>
-    <row r="153" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -16043,8 +16723,9 @@
       <c r="CS153" s="1"/>
       <c r="CT153" s="1"/>
       <c r="CU153" s="1"/>
+      <c r="CV153" s="1"/>
     </row>
-    <row r="154" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -16144,8 +16825,9 @@
       <c r="CS154" s="1"/>
       <c r="CT154" s="1"/>
       <c r="CU154" s="1"/>
+      <c r="CV154" s="1"/>
     </row>
-    <row r="155" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -16245,8 +16927,9 @@
       <c r="CS155" s="1"/>
       <c r="CT155" s="1"/>
       <c r="CU155" s="1"/>
+      <c r="CV155" s="1"/>
     </row>
-    <row r="156" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -16346,8 +17029,9 @@
       <c r="CS156" s="1"/>
       <c r="CT156" s="1"/>
       <c r="CU156" s="1"/>
+      <c r="CV156" s="1"/>
     </row>
-    <row r="157" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -16447,8 +17131,9 @@
       <c r="CS157" s="1"/>
       <c r="CT157" s="1"/>
       <c r="CU157" s="1"/>
+      <c r="CV157" s="1"/>
     </row>
-    <row r="158" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -16548,8 +17233,9 @@
       <c r="CS158" s="1"/>
       <c r="CT158" s="1"/>
       <c r="CU158" s="1"/>
+      <c r="CV158" s="1"/>
     </row>
-    <row r="159" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -16649,8 +17335,9 @@
       <c r="CS159" s="1"/>
       <c r="CT159" s="1"/>
       <c r="CU159" s="1"/>
+      <c r="CV159" s="1"/>
     </row>
-    <row r="160" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -16750,8 +17437,9 @@
       <c r="CS160" s="1"/>
       <c r="CT160" s="1"/>
       <c r="CU160" s="1"/>
+      <c r="CV160" s="1"/>
     </row>
-    <row r="161" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -16851,8 +17539,9 @@
       <c r="CS161" s="1"/>
       <c r="CT161" s="1"/>
       <c r="CU161" s="1"/>
+      <c r="CV161" s="1"/>
     </row>
-    <row r="162" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -16952,8 +17641,9 @@
       <c r="CS162" s="1"/>
       <c r="CT162" s="1"/>
       <c r="CU162" s="1"/>
+      <c r="CV162" s="1"/>
     </row>
-    <row r="163" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -17053,8 +17743,9 @@
       <c r="CS163" s="1"/>
       <c r="CT163" s="1"/>
       <c r="CU163" s="1"/>
+      <c r="CV163" s="1"/>
     </row>
-    <row r="164" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -17154,8 +17845,9 @@
       <c r="CS164" s="1"/>
       <c r="CT164" s="1"/>
       <c r="CU164" s="1"/>
+      <c r="CV164" s="1"/>
     </row>
-    <row r="165" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -17255,8 +17947,9 @@
       <c r="CS165" s="1"/>
       <c r="CT165" s="1"/>
       <c r="CU165" s="1"/>
+      <c r="CV165" s="1"/>
     </row>
-    <row r="166" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -17356,8 +18049,9 @@
       <c r="CS166" s="1"/>
       <c r="CT166" s="1"/>
       <c r="CU166" s="1"/>
+      <c r="CV166" s="1"/>
     </row>
-    <row r="167" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -17457,8 +18151,9 @@
       <c r="CS167" s="1"/>
       <c r="CT167" s="1"/>
       <c r="CU167" s="1"/>
+      <c r="CV167" s="1"/>
     </row>
-    <row r="168" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -17558,8 +18253,9 @@
       <c r="CS168" s="1"/>
       <c r="CT168" s="1"/>
       <c r="CU168" s="1"/>
+      <c r="CV168" s="1"/>
     </row>
-    <row r="169" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -17659,8 +18355,9 @@
       <c r="CS169" s="1"/>
       <c r="CT169" s="1"/>
       <c r="CU169" s="1"/>
+      <c r="CV169" s="1"/>
     </row>
-    <row r="170" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -17760,8 +18457,9 @@
       <c r="CS170" s="1"/>
       <c r="CT170" s="1"/>
       <c r="CU170" s="1"/>
+      <c r="CV170" s="1"/>
     </row>
-    <row r="171" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -17861,8 +18559,9 @@
       <c r="CS171" s="1"/>
       <c r="CT171" s="1"/>
       <c r="CU171" s="1"/>
+      <c r="CV171" s="1"/>
     </row>
-    <row r="172" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -17962,8 +18661,9 @@
       <c r="CS172" s="1"/>
       <c r="CT172" s="1"/>
       <c r="CU172" s="1"/>
+      <c r="CV172" s="1"/>
     </row>
-    <row r="173" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -18063,8 +18763,9 @@
       <c r="CS173" s="1"/>
       <c r="CT173" s="1"/>
       <c r="CU173" s="1"/>
+      <c r="CV173" s="1"/>
     </row>
-    <row r="174" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -18164,8 +18865,9 @@
       <c r="CS174" s="1"/>
       <c r="CT174" s="1"/>
       <c r="CU174" s="1"/>
+      <c r="CV174" s="1"/>
     </row>
-    <row r="175" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -18265,8 +18967,9 @@
       <c r="CS175" s="1"/>
       <c r="CT175" s="1"/>
       <c r="CU175" s="1"/>
+      <c r="CV175" s="1"/>
     </row>
-    <row r="176" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -18366,8 +19069,9 @@
       <c r="CS176" s="1"/>
       <c r="CT176" s="1"/>
       <c r="CU176" s="1"/>
+      <c r="CV176" s="1"/>
     </row>
-    <row r="177" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -18467,8 +19171,10 @@
       <c r="CS177" s="1"/>
       <c r="CT177" s="1"/>
       <c r="CU177" s="1"/>
+      <c r="CV177" s="1"/>
+      <c r="CW177" s="1"/>
     </row>
-    <row r="178" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -18568,8 +19274,9 @@
       <c r="CS178" s="1"/>
       <c r="CT178" s="1"/>
       <c r="CU178" s="1"/>
+      <c r="CV178" s="1"/>
     </row>
-    <row r="179" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -18669,8 +19376,9 @@
       <c r="CS179" s="1"/>
       <c r="CT179" s="1"/>
       <c r="CU179" s="1"/>
+      <c r="CV179" s="1"/>
     </row>
-    <row r="180" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -18770,8 +19478,9 @@
       <c r="CS180" s="1"/>
       <c r="CT180" s="1"/>
       <c r="CU180" s="1"/>
+      <c r="CV180" s="1"/>
     </row>
-    <row r="181" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -18871,8 +19580,9 @@
       <c r="CS181" s="1"/>
       <c r="CT181" s="1"/>
       <c r="CU181" s="1"/>
+      <c r="CV181" s="1"/>
     </row>
-    <row r="182" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -18972,8 +19682,12 @@
       <c r="CS182" s="1"/>
       <c r="CT182" s="1"/>
       <c r="CU182" s="1"/>
+      <c r="CV182" s="1"/>
     </row>
-    <row r="183" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
@@ -19072,8 +19786,1746 @@
       <c r="CU183" s="1"/>
       <c r="CV183" s="1"/>
     </row>
+    <row r="184" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="I184" s="1"/>
+      <c r="J184" s="1"/>
+      <c r="K184" s="1"/>
+      <c r="L184" s="1"/>
+      <c r="M184" s="1"/>
+      <c r="N184" s="1"/>
+      <c r="O184" s="1"/>
+      <c r="P184" s="1"/>
+      <c r="Q184" s="1"/>
+      <c r="R184" s="1"/>
+      <c r="S184" s="1"/>
+      <c r="T184" s="1"/>
+      <c r="U184" s="1"/>
+      <c r="V184" s="1"/>
+      <c r="W184" s="1"/>
+      <c r="X184" s="1"/>
+      <c r="Y184" s="1"/>
+      <c r="Z184" s="1"/>
+      <c r="AA184" s="1"/>
+      <c r="AB184" s="1"/>
+      <c r="AC184" s="1"/>
+      <c r="AD184" s="1"/>
+      <c r="AE184" s="1"/>
+      <c r="AF184" s="1"/>
+      <c r="AG184" s="1"/>
+      <c r="AH184" s="1"/>
+      <c r="AI184" s="1"/>
+      <c r="AJ184" s="1"/>
+      <c r="AK184" s="1"/>
+      <c r="AL184" s="1"/>
+      <c r="AM184" s="1"/>
+      <c r="AN184" s="1"/>
+      <c r="AO184" s="1"/>
+      <c r="AP184" s="1"/>
+      <c r="AQ184" s="1"/>
+      <c r="AR184" s="1"/>
+      <c r="AS184" s="1"/>
+      <c r="AT184" s="1"/>
+      <c r="AU184" s="1"/>
+      <c r="AV184" s="1"/>
+      <c r="AW184" s="1"/>
+      <c r="AX184" s="1"/>
+      <c r="AY184" s="1"/>
+      <c r="AZ184" s="1"/>
+      <c r="BA184" s="1"/>
+      <c r="BB184" s="1"/>
+      <c r="BC184" s="1"/>
+      <c r="BD184" s="1"/>
+      <c r="BE184" s="1"/>
+      <c r="BF184" s="1"/>
+      <c r="BG184" s="1"/>
+      <c r="BH184" s="1"/>
+      <c r="BI184" s="1"/>
+      <c r="BJ184" s="1"/>
+      <c r="BK184" s="1"/>
+      <c r="BL184" s="1"/>
+      <c r="BM184" s="1"/>
+      <c r="BN184" s="1"/>
+      <c r="BO184" s="1"/>
+      <c r="BP184" s="1"/>
+      <c r="BQ184" s="1"/>
+      <c r="BR184" s="1"/>
+      <c r="BS184" s="1"/>
+      <c r="BT184" s="1"/>
+      <c r="BU184" s="1"/>
+      <c r="BV184" s="1"/>
+      <c r="BW184" s="1"/>
+      <c r="BX184" s="1"/>
+      <c r="BY184" s="1"/>
+      <c r="BZ184" s="1"/>
+      <c r="CA184" s="1"/>
+      <c r="CB184" s="1"/>
+      <c r="CC184" s="1"/>
+      <c r="CD184" s="1"/>
+      <c r="CE184" s="1"/>
+      <c r="CF184" s="1"/>
+      <c r="CG184" s="1"/>
+      <c r="CH184" s="1"/>
+      <c r="CI184" s="1"/>
+      <c r="CJ184" s="1"/>
+      <c r="CK184" s="1"/>
+      <c r="CL184" s="1"/>
+      <c r="CM184" s="1"/>
+      <c r="CN184" s="1"/>
+      <c r="CO184" s="1"/>
+      <c r="CP184" s="1"/>
+      <c r="CQ184" s="1"/>
+      <c r="CR184" s="1"/>
+      <c r="CS184" s="1"/>
+      <c r="CT184" s="1"/>
+      <c r="CU184" s="1"/>
+      <c r="CV184" s="1"/>
+    </row>
+    <row r="185" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
+      <c r="J185" s="1"/>
+      <c r="K185" s="1"/>
+      <c r="L185" s="1"/>
+      <c r="M185" s="1"/>
+      <c r="N185" s="1"/>
+      <c r="O185" s="1"/>
+      <c r="P185" s="1"/>
+      <c r="Q185" s="1"/>
+      <c r="R185" s="1"/>
+      <c r="S185" s="1"/>
+      <c r="T185" s="1"/>
+      <c r="U185" s="1"/>
+      <c r="V185" s="1"/>
+      <c r="W185" s="1"/>
+      <c r="X185" s="1"/>
+      <c r="Y185" s="1"/>
+      <c r="Z185" s="1"/>
+      <c r="AA185" s="1"/>
+      <c r="AB185" s="1"/>
+      <c r="AC185" s="1"/>
+      <c r="AD185" s="1"/>
+      <c r="AE185" s="1"/>
+      <c r="AF185" s="1"/>
+      <c r="AG185" s="1"/>
+      <c r="AH185" s="1"/>
+      <c r="AI185" s="1"/>
+      <c r="AJ185" s="1"/>
+      <c r="AK185" s="1"/>
+      <c r="AL185" s="1"/>
+      <c r="AM185" s="1"/>
+      <c r="AN185" s="1"/>
+      <c r="AO185" s="1"/>
+      <c r="AP185" s="1"/>
+      <c r="AQ185" s="1"/>
+      <c r="AR185" s="1"/>
+      <c r="AS185" s="1"/>
+      <c r="AT185" s="1"/>
+      <c r="AU185" s="1"/>
+      <c r="AV185" s="1"/>
+      <c r="AW185" s="1"/>
+      <c r="AX185" s="1"/>
+      <c r="AY185" s="1"/>
+      <c r="AZ185" s="1"/>
+      <c r="BA185" s="1"/>
+      <c r="BB185" s="1"/>
+      <c r="BC185" s="1"/>
+      <c r="BD185" s="1"/>
+      <c r="BE185" s="1"/>
+      <c r="BF185" s="1"/>
+      <c r="BG185" s="1"/>
+      <c r="BH185" s="1"/>
+      <c r="BI185" s="1"/>
+      <c r="BJ185" s="1"/>
+      <c r="BK185" s="1"/>
+      <c r="BL185" s="1"/>
+      <c r="BM185" s="1"/>
+      <c r="BN185" s="1"/>
+      <c r="BO185" s="1"/>
+      <c r="BP185" s="1"/>
+      <c r="BQ185" s="1"/>
+      <c r="BR185" s="1"/>
+      <c r="BS185" s="1"/>
+      <c r="BT185" s="1"/>
+      <c r="BU185" s="1"/>
+      <c r="BV185" s="1"/>
+      <c r="BW185" s="1"/>
+      <c r="BX185" s="1"/>
+      <c r="BY185" s="1"/>
+      <c r="BZ185" s="1"/>
+      <c r="CA185" s="1"/>
+      <c r="CB185" s="1"/>
+      <c r="CC185" s="1"/>
+      <c r="CD185" s="1"/>
+      <c r="CE185" s="1"/>
+      <c r="CF185" s="1"/>
+      <c r="CG185" s="1"/>
+      <c r="CH185" s="1"/>
+      <c r="CI185" s="1"/>
+      <c r="CJ185" s="1"/>
+      <c r="CK185" s="1"/>
+      <c r="CL185" s="1"/>
+      <c r="CM185" s="1"/>
+      <c r="CN185" s="1"/>
+      <c r="CO185" s="1"/>
+      <c r="CP185" s="1"/>
+      <c r="CQ185" s="1"/>
+      <c r="CR185" s="1"/>
+      <c r="CS185" s="1"/>
+      <c r="CT185" s="1"/>
+      <c r="CU185" s="1"/>
+      <c r="CV185" s="1"/>
+    </row>
+    <row r="186" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="1"/>
+      <c r="I186" s="1"/>
+      <c r="J186" s="1"/>
+      <c r="K186" s="1"/>
+      <c r="L186" s="1"/>
+      <c r="M186" s="1"/>
+      <c r="N186" s="1"/>
+      <c r="O186" s="1"/>
+      <c r="P186" s="1"/>
+      <c r="Q186" s="1"/>
+      <c r="R186" s="1"/>
+      <c r="S186" s="1"/>
+      <c r="T186" s="1"/>
+      <c r="U186" s="1"/>
+      <c r="V186" s="1"/>
+      <c r="W186" s="1"/>
+      <c r="X186" s="1"/>
+      <c r="Y186" s="1"/>
+      <c r="Z186" s="1"/>
+      <c r="AA186" s="1"/>
+      <c r="AB186" s="1"/>
+      <c r="AC186" s="1"/>
+      <c r="AD186" s="1"/>
+      <c r="AE186" s="1"/>
+      <c r="AF186" s="1"/>
+      <c r="AG186" s="1"/>
+      <c r="AH186" s="1"/>
+      <c r="AI186" s="1"/>
+      <c r="AJ186" s="1"/>
+      <c r="AK186" s="1"/>
+      <c r="AL186" s="1"/>
+      <c r="AM186" s="1"/>
+      <c r="AN186" s="1"/>
+      <c r="AO186" s="1"/>
+      <c r="AP186" s="1"/>
+      <c r="AQ186" s="1"/>
+      <c r="AR186" s="1"/>
+      <c r="AS186" s="1"/>
+      <c r="AT186" s="1"/>
+      <c r="AU186" s="1"/>
+      <c r="AV186" s="1"/>
+      <c r="AW186" s="1"/>
+      <c r="AX186" s="1"/>
+      <c r="AY186" s="1"/>
+      <c r="AZ186" s="1"/>
+      <c r="BA186" s="1"/>
+      <c r="BB186" s="1"/>
+      <c r="BC186" s="1"/>
+      <c r="BD186" s="1"/>
+      <c r="BE186" s="1"/>
+      <c r="BF186" s="1"/>
+      <c r="BG186" s="1"/>
+      <c r="BH186" s="1"/>
+      <c r="BI186" s="1"/>
+      <c r="BJ186" s="1"/>
+      <c r="BK186" s="1"/>
+      <c r="BL186" s="1"/>
+      <c r="BM186" s="1"/>
+      <c r="BN186" s="1"/>
+      <c r="BO186" s="1"/>
+      <c r="BP186" s="1"/>
+      <c r="BQ186" s="1"/>
+      <c r="BR186" s="1"/>
+      <c r="BS186" s="1"/>
+      <c r="BT186" s="1"/>
+      <c r="BU186" s="1"/>
+      <c r="BV186" s="1"/>
+      <c r="BW186" s="1"/>
+      <c r="BX186" s="1"/>
+      <c r="BY186" s="1"/>
+      <c r="BZ186" s="1"/>
+      <c r="CA186" s="1"/>
+      <c r="CB186" s="1"/>
+      <c r="CC186" s="1"/>
+      <c r="CD186" s="1"/>
+      <c r="CE186" s="1"/>
+      <c r="CF186" s="1"/>
+      <c r="CG186" s="1"/>
+      <c r="CH186" s="1"/>
+      <c r="CI186" s="1"/>
+      <c r="CJ186" s="1"/>
+      <c r="CK186" s="1"/>
+      <c r="CL186" s="1"/>
+      <c r="CM186" s="1"/>
+      <c r="CN186" s="1"/>
+      <c r="CO186" s="1"/>
+      <c r="CP186" s="1"/>
+      <c r="CQ186" s="1"/>
+      <c r="CR186" s="1"/>
+      <c r="CS186" s="1"/>
+      <c r="CT186" s="1"/>
+      <c r="CU186" s="1"/>
+      <c r="CV186" s="1"/>
+    </row>
+    <row r="187" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
+      <c r="I187" s="1"/>
+      <c r="J187" s="1"/>
+      <c r="K187" s="1"/>
+      <c r="L187" s="1"/>
+      <c r="M187" s="1"/>
+      <c r="N187" s="1"/>
+      <c r="O187" s="1"/>
+      <c r="P187" s="1"/>
+      <c r="Q187" s="1"/>
+      <c r="R187" s="1"/>
+      <c r="S187" s="1"/>
+      <c r="T187" s="1"/>
+      <c r="U187" s="1"/>
+      <c r="V187" s="1"/>
+      <c r="W187" s="1"/>
+      <c r="X187" s="1"/>
+      <c r="Y187" s="1"/>
+      <c r="Z187" s="1"/>
+      <c r="AA187" s="1"/>
+      <c r="AB187" s="1"/>
+      <c r="AC187" s="1"/>
+      <c r="AD187" s="1"/>
+      <c r="AE187" s="1"/>
+      <c r="AF187" s="1"/>
+      <c r="AG187" s="1"/>
+      <c r="AH187" s="1"/>
+      <c r="AI187" s="1"/>
+      <c r="AJ187" s="1"/>
+      <c r="AK187" s="1"/>
+      <c r="AL187" s="1"/>
+      <c r="AM187" s="1"/>
+      <c r="AN187" s="1"/>
+      <c r="AO187" s="1"/>
+      <c r="AP187" s="1"/>
+      <c r="AQ187" s="1"/>
+      <c r="AR187" s="1"/>
+      <c r="AS187" s="1"/>
+      <c r="AT187" s="1"/>
+      <c r="AU187" s="1"/>
+      <c r="AV187" s="1"/>
+      <c r="AW187" s="1"/>
+      <c r="AX187" s="1"/>
+      <c r="AY187" s="1"/>
+      <c r="AZ187" s="1"/>
+      <c r="BA187" s="1"/>
+      <c r="BB187" s="1"/>
+      <c r="BC187" s="1"/>
+      <c r="BD187" s="1"/>
+      <c r="BE187" s="1"/>
+      <c r="BF187" s="1"/>
+      <c r="BG187" s="1"/>
+      <c r="BH187" s="1"/>
+      <c r="BI187" s="1"/>
+      <c r="BJ187" s="1"/>
+      <c r="BK187" s="1"/>
+      <c r="BL187" s="1"/>
+      <c r="BM187" s="1"/>
+      <c r="BN187" s="1"/>
+      <c r="BO187" s="1"/>
+      <c r="BP187" s="1"/>
+      <c r="BQ187" s="1"/>
+      <c r="BR187" s="1"/>
+      <c r="BS187" s="1"/>
+      <c r="BT187" s="1"/>
+      <c r="BU187" s="1"/>
+      <c r="BV187" s="1"/>
+      <c r="BW187" s="1"/>
+      <c r="BX187" s="1"/>
+      <c r="BY187" s="1"/>
+      <c r="BZ187" s="1"/>
+      <c r="CA187" s="1"/>
+      <c r="CB187" s="1"/>
+      <c r="CC187" s="1"/>
+      <c r="CD187" s="1"/>
+      <c r="CE187" s="1"/>
+      <c r="CF187" s="1"/>
+      <c r="CG187" s="1"/>
+      <c r="CH187" s="1"/>
+      <c r="CI187" s="1"/>
+      <c r="CJ187" s="1"/>
+      <c r="CK187" s="1"/>
+      <c r="CL187" s="1"/>
+      <c r="CM187" s="1"/>
+      <c r="CN187" s="1"/>
+      <c r="CO187" s="1"/>
+      <c r="CP187" s="1"/>
+      <c r="CQ187" s="1"/>
+      <c r="CR187" s="1"/>
+      <c r="CS187" s="1"/>
+      <c r="CT187" s="1"/>
+      <c r="CU187" s="1"/>
+      <c r="CV187" s="1"/>
+    </row>
+    <row r="188" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="1"/>
+      <c r="I188" s="1"/>
+      <c r="J188" s="1"/>
+      <c r="K188" s="1"/>
+      <c r="L188" s="1"/>
+      <c r="M188" s="1"/>
+      <c r="N188" s="1"/>
+      <c r="O188" s="1"/>
+      <c r="P188" s="1"/>
+      <c r="Q188" s="1"/>
+      <c r="R188" s="1"/>
+      <c r="S188" s="1"/>
+      <c r="T188" s="1"/>
+      <c r="U188" s="1"/>
+      <c r="V188" s="1"/>
+      <c r="W188" s="1"/>
+      <c r="X188" s="1"/>
+      <c r="Y188" s="1"/>
+      <c r="Z188" s="1"/>
+      <c r="AA188" s="1"/>
+      <c r="AB188" s="1"/>
+      <c r="AC188" s="1"/>
+      <c r="AD188" s="1"/>
+      <c r="AE188" s="1"/>
+      <c r="AF188" s="1"/>
+      <c r="AG188" s="1"/>
+      <c r="AH188" s="1"/>
+      <c r="AI188" s="1"/>
+      <c r="AJ188" s="1"/>
+      <c r="AK188" s="1"/>
+      <c r="AL188" s="1"/>
+      <c r="AM188" s="1"/>
+      <c r="AN188" s="1"/>
+      <c r="AO188" s="1"/>
+      <c r="AP188" s="1"/>
+      <c r="AQ188" s="1"/>
+      <c r="AR188" s="1"/>
+      <c r="AS188" s="1"/>
+      <c r="AT188" s="1"/>
+      <c r="AU188" s="1"/>
+      <c r="AV188" s="1"/>
+      <c r="AW188" s="1"/>
+      <c r="AX188" s="1"/>
+      <c r="AY188" s="1"/>
+      <c r="AZ188" s="1"/>
+      <c r="BA188" s="1"/>
+      <c r="BB188" s="1"/>
+      <c r="BC188" s="1"/>
+      <c r="BD188" s="1"/>
+      <c r="BE188" s="1"/>
+      <c r="BF188" s="1"/>
+      <c r="BG188" s="1"/>
+      <c r="BH188" s="1"/>
+      <c r="BI188" s="1"/>
+      <c r="BJ188" s="1"/>
+      <c r="BK188" s="1"/>
+      <c r="BL188" s="1"/>
+      <c r="BM188" s="1"/>
+      <c r="BN188" s="1"/>
+      <c r="BO188" s="1"/>
+      <c r="BP188" s="1"/>
+      <c r="BQ188" s="1"/>
+      <c r="BR188" s="1"/>
+      <c r="BS188" s="1"/>
+      <c r="BT188" s="1"/>
+      <c r="BU188" s="1"/>
+      <c r="BV188" s="1"/>
+      <c r="BW188" s="1"/>
+      <c r="BX188" s="1"/>
+      <c r="BY188" s="1"/>
+      <c r="BZ188" s="1"/>
+      <c r="CA188" s="1"/>
+      <c r="CB188" s="1"/>
+      <c r="CC188" s="1"/>
+      <c r="CD188" s="1"/>
+      <c r="CE188" s="1"/>
+      <c r="CF188" s="1"/>
+      <c r="CG188" s="1"/>
+      <c r="CH188" s="1"/>
+      <c r="CI188" s="1"/>
+      <c r="CJ188" s="1"/>
+      <c r="CK188" s="1"/>
+      <c r="CL188" s="1"/>
+      <c r="CM188" s="1"/>
+      <c r="CN188" s="1"/>
+      <c r="CO188" s="1"/>
+      <c r="CP188" s="1"/>
+      <c r="CQ188" s="1"/>
+      <c r="CR188" s="1"/>
+      <c r="CS188" s="1"/>
+      <c r="CT188" s="1"/>
+      <c r="CU188" s="1"/>
+      <c r="CV188" s="1"/>
+    </row>
+    <row r="189" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+      <c r="G189" s="1"/>
+      <c r="H189" s="1"/>
+      <c r="I189" s="1"/>
+      <c r="J189" s="1"/>
+      <c r="K189" s="1"/>
+      <c r="L189" s="1"/>
+      <c r="M189" s="1"/>
+      <c r="N189" s="1"/>
+      <c r="O189" s="1"/>
+      <c r="P189" s="1"/>
+      <c r="Q189" s="1"/>
+      <c r="R189" s="1"/>
+      <c r="S189" s="1"/>
+      <c r="T189" s="1"/>
+      <c r="U189" s="1"/>
+      <c r="V189" s="1"/>
+      <c r="W189" s="1"/>
+      <c r="X189" s="1"/>
+      <c r="Y189" s="1"/>
+      <c r="Z189" s="1"/>
+      <c r="AA189" s="1"/>
+      <c r="AB189" s="1"/>
+      <c r="AC189" s="1"/>
+      <c r="AD189" s="1"/>
+      <c r="AE189" s="1"/>
+      <c r="AF189" s="1"/>
+      <c r="AG189" s="1"/>
+      <c r="AH189" s="1"/>
+      <c r="AI189" s="1"/>
+      <c r="AJ189" s="1"/>
+      <c r="AK189" s="1"/>
+      <c r="AL189" s="1"/>
+      <c r="AM189" s="1"/>
+      <c r="AN189" s="1"/>
+      <c r="AO189" s="1"/>
+      <c r="AP189" s="1"/>
+      <c r="AQ189" s="1"/>
+      <c r="AR189" s="1"/>
+      <c r="AS189" s="1"/>
+      <c r="AT189" s="1"/>
+      <c r="AU189" s="1"/>
+      <c r="AV189" s="1"/>
+      <c r="AW189" s="1"/>
+      <c r="AX189" s="1"/>
+      <c r="AY189" s="1"/>
+      <c r="AZ189" s="1"/>
+      <c r="BA189" s="1"/>
+      <c r="BB189" s="1"/>
+      <c r="BC189" s="1"/>
+      <c r="BD189" s="1"/>
+      <c r="BE189" s="1"/>
+      <c r="BF189" s="1"/>
+      <c r="BG189" s="1"/>
+      <c r="BH189" s="1"/>
+      <c r="BI189" s="1"/>
+      <c r="BJ189" s="1"/>
+      <c r="BK189" s="1"/>
+      <c r="BL189" s="1"/>
+      <c r="BM189" s="1"/>
+      <c r="BN189" s="1"/>
+      <c r="BO189" s="1"/>
+      <c r="BP189" s="1"/>
+      <c r="BQ189" s="1"/>
+      <c r="BR189" s="1"/>
+      <c r="BS189" s="1"/>
+      <c r="BT189" s="1"/>
+      <c r="BU189" s="1"/>
+      <c r="BV189" s="1"/>
+      <c r="BW189" s="1"/>
+      <c r="BX189" s="1"/>
+      <c r="BY189" s="1"/>
+      <c r="BZ189" s="1"/>
+      <c r="CA189" s="1"/>
+      <c r="CB189" s="1"/>
+      <c r="CC189" s="1"/>
+      <c r="CD189" s="1"/>
+      <c r="CE189" s="1"/>
+      <c r="CF189" s="1"/>
+      <c r="CG189" s="1"/>
+      <c r="CH189" s="1"/>
+      <c r="CI189" s="1"/>
+      <c r="CJ189" s="1"/>
+      <c r="CK189" s="1"/>
+      <c r="CL189" s="1"/>
+      <c r="CM189" s="1"/>
+      <c r="CN189" s="1"/>
+      <c r="CO189" s="1"/>
+      <c r="CP189" s="1"/>
+      <c r="CQ189" s="1"/>
+      <c r="CR189" s="1"/>
+      <c r="CS189" s="1"/>
+      <c r="CT189" s="1"/>
+      <c r="CU189" s="1"/>
+      <c r="CV189" s="1"/>
+    </row>
+    <row r="190" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+      <c r="G190" s="1"/>
+      <c r="H190" s="1"/>
+      <c r="I190" s="1"/>
+      <c r="J190" s="1"/>
+      <c r="K190" s="1"/>
+      <c r="L190" s="1"/>
+      <c r="M190" s="1"/>
+      <c r="N190" s="1"/>
+      <c r="O190" s="1"/>
+      <c r="P190" s="1"/>
+      <c r="Q190" s="1"/>
+      <c r="R190" s="1"/>
+      <c r="S190" s="1"/>
+      <c r="T190" s="1"/>
+      <c r="U190" s="1"/>
+      <c r="V190" s="1"/>
+      <c r="W190" s="1"/>
+      <c r="X190" s="1"/>
+      <c r="Y190" s="1"/>
+      <c r="Z190" s="1"/>
+      <c r="AA190" s="1"/>
+      <c r="AB190" s="1"/>
+      <c r="AC190" s="1"/>
+      <c r="AD190" s="1"/>
+      <c r="AE190" s="1"/>
+      <c r="AF190" s="1"/>
+      <c r="AG190" s="1"/>
+      <c r="AH190" s="1"/>
+      <c r="AI190" s="1"/>
+      <c r="AJ190" s="1"/>
+      <c r="AK190" s="1"/>
+      <c r="AL190" s="1"/>
+      <c r="AM190" s="1"/>
+      <c r="AN190" s="1"/>
+      <c r="AO190" s="1"/>
+      <c r="AP190" s="1"/>
+      <c r="AQ190" s="1"/>
+      <c r="AR190" s="1"/>
+      <c r="AS190" s="1"/>
+      <c r="AT190" s="1"/>
+      <c r="AU190" s="1"/>
+      <c r="AV190" s="1"/>
+      <c r="AW190" s="1"/>
+      <c r="AX190" s="1"/>
+      <c r="AY190" s="1"/>
+      <c r="AZ190" s="1"/>
+      <c r="BA190" s="1"/>
+      <c r="BB190" s="1"/>
+      <c r="BC190" s="1"/>
+      <c r="BD190" s="1"/>
+      <c r="BE190" s="1"/>
+      <c r="BF190" s="1"/>
+      <c r="BG190" s="1"/>
+      <c r="BH190" s="1"/>
+      <c r="BI190" s="1"/>
+      <c r="BJ190" s="1"/>
+      <c r="BK190" s="1"/>
+      <c r="BL190" s="1"/>
+      <c r="BM190" s="1"/>
+      <c r="BN190" s="1"/>
+      <c r="BO190" s="1"/>
+      <c r="BP190" s="1"/>
+      <c r="BQ190" s="1"/>
+      <c r="BR190" s="1"/>
+      <c r="BS190" s="1"/>
+      <c r="BT190" s="1"/>
+      <c r="BU190" s="1"/>
+      <c r="BV190" s="1"/>
+      <c r="BW190" s="1"/>
+      <c r="BX190" s="1"/>
+      <c r="BY190" s="1"/>
+      <c r="BZ190" s="1"/>
+      <c r="CA190" s="1"/>
+      <c r="CB190" s="1"/>
+      <c r="CC190" s="1"/>
+      <c r="CD190" s="1"/>
+      <c r="CE190" s="1"/>
+      <c r="CF190" s="1"/>
+      <c r="CG190" s="1"/>
+      <c r="CH190" s="1"/>
+      <c r="CI190" s="1"/>
+      <c r="CJ190" s="1"/>
+      <c r="CK190" s="1"/>
+      <c r="CL190" s="1"/>
+      <c r="CM190" s="1"/>
+      <c r="CN190" s="1"/>
+      <c r="CO190" s="1"/>
+      <c r="CP190" s="1"/>
+      <c r="CQ190" s="1"/>
+      <c r="CR190" s="1"/>
+      <c r="CS190" s="1"/>
+      <c r="CT190" s="1"/>
+      <c r="CU190" s="1"/>
+      <c r="CV190" s="1"/>
+    </row>
+    <row r="191" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
+      <c r="H191" s="1"/>
+      <c r="I191" s="1"/>
+      <c r="J191" s="1"/>
+      <c r="K191" s="1"/>
+      <c r="L191" s="1"/>
+      <c r="M191" s="1"/>
+      <c r="N191" s="1"/>
+      <c r="O191" s="1"/>
+      <c r="P191" s="1"/>
+      <c r="Q191" s="1"/>
+      <c r="R191" s="1"/>
+      <c r="S191" s="1"/>
+      <c r="T191" s="1"/>
+      <c r="U191" s="1"/>
+      <c r="V191" s="1"/>
+      <c r="W191" s="1"/>
+      <c r="X191" s="1"/>
+      <c r="Y191" s="1"/>
+      <c r="Z191" s="1"/>
+      <c r="AA191" s="1"/>
+      <c r="AB191" s="1"/>
+      <c r="AC191" s="1"/>
+      <c r="AD191" s="1"/>
+      <c r="AE191" s="1"/>
+      <c r="AF191" s="1"/>
+      <c r="AG191" s="1"/>
+      <c r="AH191" s="1"/>
+      <c r="AI191" s="1"/>
+      <c r="AJ191" s="1"/>
+      <c r="AK191" s="1"/>
+      <c r="AL191" s="1"/>
+      <c r="AM191" s="1"/>
+      <c r="AN191" s="1"/>
+      <c r="AO191" s="1"/>
+      <c r="AP191" s="1"/>
+      <c r="AQ191" s="1"/>
+      <c r="AR191" s="1"/>
+      <c r="AS191" s="1"/>
+      <c r="AT191" s="1"/>
+      <c r="AU191" s="1"/>
+      <c r="AV191" s="1"/>
+      <c r="AW191" s="1"/>
+      <c r="AX191" s="1"/>
+      <c r="AY191" s="1"/>
+      <c r="AZ191" s="1"/>
+      <c r="BA191" s="1"/>
+      <c r="BB191" s="1"/>
+      <c r="BC191" s="1"/>
+      <c r="BD191" s="1"/>
+      <c r="BE191" s="1"/>
+      <c r="BF191" s="1"/>
+      <c r="BG191" s="1"/>
+      <c r="BH191" s="1"/>
+      <c r="BI191" s="1"/>
+      <c r="BJ191" s="1"/>
+      <c r="BK191" s="1"/>
+      <c r="BL191" s="1"/>
+      <c r="BM191" s="1"/>
+      <c r="BN191" s="1"/>
+      <c r="BO191" s="1"/>
+      <c r="BP191" s="1"/>
+      <c r="BQ191" s="1"/>
+      <c r="BR191" s="1"/>
+      <c r="BS191" s="1"/>
+      <c r="BT191" s="1"/>
+      <c r="BU191" s="1"/>
+      <c r="BV191" s="1"/>
+      <c r="BW191" s="1"/>
+      <c r="BX191" s="1"/>
+      <c r="BY191" s="1"/>
+      <c r="BZ191" s="1"/>
+      <c r="CA191" s="1"/>
+      <c r="CB191" s="1"/>
+      <c r="CC191" s="1"/>
+      <c r="CD191" s="1"/>
+      <c r="CE191" s="1"/>
+      <c r="CF191" s="1"/>
+      <c r="CG191" s="1"/>
+      <c r="CH191" s="1"/>
+      <c r="CI191" s="1"/>
+      <c r="CJ191" s="1"/>
+      <c r="CK191" s="1"/>
+      <c r="CL191" s="1"/>
+      <c r="CM191" s="1"/>
+      <c r="CN191" s="1"/>
+      <c r="CO191" s="1"/>
+      <c r="CP191" s="1"/>
+      <c r="CQ191" s="1"/>
+      <c r="CR191" s="1"/>
+      <c r="CS191" s="1"/>
+      <c r="CT191" s="1"/>
+      <c r="CU191" s="1"/>
+      <c r="CV191" s="1"/>
+    </row>
+    <row r="192" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1"/>
+      <c r="H192" s="1"/>
+      <c r="I192" s="1"/>
+      <c r="J192" s="1"/>
+      <c r="K192" s="1"/>
+      <c r="L192" s="1"/>
+      <c r="M192" s="1"/>
+      <c r="N192" s="1"/>
+      <c r="O192" s="1"/>
+      <c r="P192" s="1"/>
+      <c r="Q192" s="1"/>
+      <c r="R192" s="1"/>
+      <c r="S192" s="1"/>
+      <c r="T192" s="1"/>
+      <c r="U192" s="1"/>
+      <c r="V192" s="1"/>
+      <c r="W192" s="1"/>
+      <c r="X192" s="1"/>
+      <c r="Y192" s="1"/>
+      <c r="Z192" s="1"/>
+      <c r="AA192" s="1"/>
+      <c r="AB192" s="1"/>
+      <c r="AC192" s="1"/>
+      <c r="AD192" s="1"/>
+      <c r="AE192" s="1"/>
+      <c r="AF192" s="1"/>
+      <c r="AG192" s="1"/>
+      <c r="AH192" s="1"/>
+      <c r="AI192" s="1"/>
+      <c r="AJ192" s="1"/>
+      <c r="AK192" s="1"/>
+      <c r="AL192" s="1"/>
+      <c r="AM192" s="1"/>
+      <c r="AN192" s="1"/>
+      <c r="AO192" s="1"/>
+      <c r="AP192" s="1"/>
+      <c r="AQ192" s="1"/>
+      <c r="AR192" s="1"/>
+      <c r="AS192" s="1"/>
+      <c r="AT192" s="1"/>
+      <c r="AU192" s="1"/>
+      <c r="AV192" s="1"/>
+      <c r="AW192" s="1"/>
+      <c r="AX192" s="1"/>
+      <c r="AY192" s="1"/>
+      <c r="AZ192" s="1"/>
+      <c r="BA192" s="1"/>
+      <c r="BB192" s="1"/>
+      <c r="BC192" s="1"/>
+      <c r="BD192" s="1"/>
+      <c r="BE192" s="1"/>
+      <c r="BF192" s="1"/>
+      <c r="BG192" s="1"/>
+      <c r="BH192" s="1"/>
+      <c r="BI192" s="1"/>
+      <c r="BJ192" s="1"/>
+      <c r="BK192" s="1"/>
+      <c r="BL192" s="1"/>
+      <c r="BM192" s="1"/>
+      <c r="BN192" s="1"/>
+      <c r="BO192" s="1"/>
+      <c r="BP192" s="1"/>
+      <c r="BQ192" s="1"/>
+      <c r="BR192" s="1"/>
+      <c r="BS192" s="1"/>
+      <c r="BT192" s="1"/>
+      <c r="BU192" s="1"/>
+      <c r="BV192" s="1"/>
+      <c r="BW192" s="1"/>
+      <c r="BX192" s="1"/>
+      <c r="BY192" s="1"/>
+      <c r="BZ192" s="1"/>
+      <c r="CA192" s="1"/>
+      <c r="CB192" s="1"/>
+      <c r="CC192" s="1"/>
+      <c r="CD192" s="1"/>
+      <c r="CE192" s="1"/>
+      <c r="CF192" s="1"/>
+      <c r="CG192" s="1"/>
+      <c r="CH192" s="1"/>
+      <c r="CI192" s="1"/>
+      <c r="CJ192" s="1"/>
+      <c r="CK192" s="1"/>
+      <c r="CL192" s="1"/>
+      <c r="CM192" s="1"/>
+      <c r="CN192" s="1"/>
+      <c r="CO192" s="1"/>
+      <c r="CP192" s="1"/>
+      <c r="CQ192" s="1"/>
+      <c r="CR192" s="1"/>
+      <c r="CS192" s="1"/>
+      <c r="CT192" s="1"/>
+      <c r="CU192" s="1"/>
+      <c r="CV192" s="1"/>
+    </row>
+    <row r="193" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+      <c r="G193" s="1"/>
+      <c r="H193" s="1"/>
+      <c r="I193" s="1"/>
+      <c r="J193" s="1"/>
+      <c r="K193" s="1"/>
+      <c r="L193" s="1"/>
+      <c r="M193" s="1"/>
+      <c r="N193" s="1"/>
+      <c r="O193" s="1"/>
+      <c r="P193" s="1"/>
+      <c r="Q193" s="1"/>
+      <c r="R193" s="1"/>
+      <c r="S193" s="1"/>
+      <c r="T193" s="1"/>
+      <c r="U193" s="1"/>
+      <c r="V193" s="1"/>
+      <c r="W193" s="1"/>
+      <c r="X193" s="1"/>
+      <c r="Y193" s="1"/>
+      <c r="Z193" s="1"/>
+      <c r="AA193" s="1"/>
+      <c r="AB193" s="1"/>
+      <c r="AC193" s="1"/>
+      <c r="AD193" s="1"/>
+      <c r="AE193" s="1"/>
+      <c r="AF193" s="1"/>
+      <c r="AG193" s="1"/>
+      <c r="AH193" s="1"/>
+      <c r="AI193" s="1"/>
+      <c r="AJ193" s="1"/>
+      <c r="AK193" s="1"/>
+      <c r="AL193" s="1"/>
+      <c r="AM193" s="1"/>
+      <c r="AN193" s="1"/>
+      <c r="AO193" s="1"/>
+      <c r="AP193" s="1"/>
+      <c r="AQ193" s="1"/>
+      <c r="AR193" s="1"/>
+      <c r="AS193" s="1"/>
+      <c r="AT193" s="1"/>
+      <c r="AU193" s="1"/>
+      <c r="AV193" s="1"/>
+      <c r="AW193" s="1"/>
+      <c r="AX193" s="1"/>
+      <c r="AY193" s="1"/>
+      <c r="AZ193" s="1"/>
+      <c r="BA193" s="1"/>
+      <c r="BB193" s="1"/>
+      <c r="BC193" s="1"/>
+      <c r="BD193" s="1"/>
+      <c r="BE193" s="1"/>
+      <c r="BF193" s="1"/>
+      <c r="BG193" s="1"/>
+      <c r="BH193" s="1"/>
+      <c r="BI193" s="1"/>
+      <c r="BJ193" s="1"/>
+      <c r="BK193" s="1"/>
+      <c r="BL193" s="1"/>
+      <c r="BM193" s="1"/>
+      <c r="BN193" s="1"/>
+      <c r="BO193" s="1"/>
+      <c r="BP193" s="1"/>
+      <c r="BQ193" s="1"/>
+      <c r="BR193" s="1"/>
+      <c r="BS193" s="1"/>
+      <c r="BT193" s="1"/>
+      <c r="BU193" s="1"/>
+      <c r="BV193" s="1"/>
+      <c r="BW193" s="1"/>
+      <c r="BX193" s="1"/>
+      <c r="BY193" s="1"/>
+      <c r="BZ193" s="1"/>
+      <c r="CA193" s="1"/>
+      <c r="CB193" s="1"/>
+      <c r="CC193" s="1"/>
+      <c r="CD193" s="1"/>
+      <c r="CE193" s="1"/>
+      <c r="CF193" s="1"/>
+      <c r="CG193" s="1"/>
+      <c r="CH193" s="1"/>
+      <c r="CI193" s="1"/>
+      <c r="CJ193" s="1"/>
+      <c r="CK193" s="1"/>
+      <c r="CL193" s="1"/>
+      <c r="CM193" s="1"/>
+      <c r="CN193" s="1"/>
+      <c r="CO193" s="1"/>
+      <c r="CP193" s="1"/>
+      <c r="CQ193" s="1"/>
+      <c r="CR193" s="1"/>
+      <c r="CS193" s="1"/>
+      <c r="CT193" s="1"/>
+      <c r="CU193" s="1"/>
+      <c r="CV193" s="1"/>
+    </row>
+    <row r="194" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1"/>
+      <c r="J194" s="1"/>
+      <c r="K194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="M194" s="1"/>
+      <c r="N194" s="1"/>
+      <c r="O194" s="1"/>
+      <c r="P194" s="1"/>
+      <c r="Q194" s="1"/>
+      <c r="R194" s="1"/>
+      <c r="S194" s="1"/>
+      <c r="T194" s="1"/>
+      <c r="U194" s="1"/>
+      <c r="V194" s="1"/>
+      <c r="W194" s="1"/>
+      <c r="X194" s="1"/>
+      <c r="Y194" s="1"/>
+      <c r="Z194" s="1"/>
+      <c r="AA194" s="1"/>
+      <c r="AB194" s="1"/>
+      <c r="AC194" s="1"/>
+      <c r="AD194" s="1"/>
+      <c r="AE194" s="1"/>
+      <c r="AF194" s="1"/>
+      <c r="AG194" s="1"/>
+      <c r="AH194" s="1"/>
+      <c r="AI194" s="1"/>
+      <c r="AJ194" s="1"/>
+      <c r="AK194" s="1"/>
+      <c r="AL194" s="1"/>
+      <c r="AM194" s="1"/>
+      <c r="AN194" s="1"/>
+      <c r="AO194" s="1"/>
+      <c r="AP194" s="1"/>
+      <c r="AQ194" s="1"/>
+      <c r="AR194" s="1"/>
+      <c r="AS194" s="1"/>
+      <c r="AT194" s="1"/>
+      <c r="AU194" s="1"/>
+      <c r="AV194" s="1"/>
+      <c r="AW194" s="1"/>
+      <c r="AX194" s="1"/>
+      <c r="AY194" s="1"/>
+      <c r="AZ194" s="1"/>
+      <c r="BA194" s="1"/>
+      <c r="BB194" s="1"/>
+      <c r="BC194" s="1"/>
+      <c r="BD194" s="1"/>
+      <c r="BE194" s="1"/>
+      <c r="BF194" s="1"/>
+      <c r="BG194" s="1"/>
+      <c r="BH194" s="1"/>
+      <c r="BI194" s="1"/>
+      <c r="BJ194" s="1"/>
+      <c r="BK194" s="1"/>
+      <c r="BL194" s="1"/>
+      <c r="BM194" s="1"/>
+      <c r="BN194" s="1"/>
+      <c r="BO194" s="1"/>
+      <c r="BP194" s="1"/>
+      <c r="BQ194" s="1"/>
+      <c r="BR194" s="1"/>
+      <c r="BS194" s="1"/>
+      <c r="BT194" s="1"/>
+      <c r="BU194" s="1"/>
+      <c r="BV194" s="1"/>
+      <c r="BW194" s="1"/>
+      <c r="BX194" s="1"/>
+      <c r="BY194" s="1"/>
+      <c r="BZ194" s="1"/>
+      <c r="CA194" s="1"/>
+      <c r="CB194" s="1"/>
+      <c r="CC194" s="1"/>
+      <c r="CD194" s="1"/>
+      <c r="CE194" s="1"/>
+      <c r="CF194" s="1"/>
+      <c r="CG194" s="1"/>
+      <c r="CH194" s="1"/>
+      <c r="CI194" s="1"/>
+      <c r="CJ194" s="1"/>
+      <c r="CK194" s="1"/>
+      <c r="CL194" s="1"/>
+      <c r="CM194" s="1"/>
+      <c r="CN194" s="1"/>
+      <c r="CO194" s="1"/>
+      <c r="CP194" s="1"/>
+      <c r="CQ194" s="1"/>
+      <c r="CR194" s="1"/>
+      <c r="CS194" s="1"/>
+      <c r="CT194" s="1"/>
+      <c r="CU194" s="1"/>
+      <c r="CV194" s="1"/>
+    </row>
+    <row r="195" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+      <c r="G195" s="1"/>
+      <c r="H195" s="1"/>
+      <c r="I195" s="1"/>
+      <c r="J195" s="1"/>
+      <c r="K195" s="1"/>
+      <c r="L195" s="1"/>
+      <c r="M195" s="1"/>
+      <c r="N195" s="1"/>
+      <c r="O195" s="1"/>
+      <c r="P195" s="1"/>
+      <c r="Q195" s="1"/>
+      <c r="R195" s="1"/>
+      <c r="S195" s="1"/>
+      <c r="T195" s="1"/>
+      <c r="U195" s="1"/>
+      <c r="V195" s="1"/>
+      <c r="W195" s="1"/>
+      <c r="X195" s="1"/>
+      <c r="Y195" s="1"/>
+      <c r="Z195" s="1"/>
+      <c r="AA195" s="1"/>
+      <c r="AB195" s="1"/>
+      <c r="AC195" s="1"/>
+      <c r="AD195" s="1"/>
+      <c r="AE195" s="1"/>
+      <c r="AF195" s="1"/>
+      <c r="AG195" s="1"/>
+      <c r="AH195" s="1"/>
+      <c r="AI195" s="1"/>
+      <c r="AJ195" s="1"/>
+      <c r="AK195" s="1"/>
+      <c r="AL195" s="1"/>
+      <c r="AM195" s="1"/>
+      <c r="AN195" s="1"/>
+      <c r="AO195" s="1"/>
+      <c r="AP195" s="1"/>
+      <c r="AQ195" s="1"/>
+      <c r="AR195" s="1"/>
+      <c r="AS195" s="1"/>
+      <c r="AT195" s="1"/>
+      <c r="AU195" s="1"/>
+      <c r="AV195" s="1"/>
+      <c r="AW195" s="1"/>
+      <c r="AX195" s="1"/>
+      <c r="AY195" s="1"/>
+      <c r="AZ195" s="1"/>
+      <c r="BA195" s="1"/>
+      <c r="BB195" s="1"/>
+      <c r="BC195" s="1"/>
+      <c r="BD195" s="1"/>
+      <c r="BE195" s="1"/>
+      <c r="BF195" s="1"/>
+      <c r="BG195" s="1"/>
+      <c r="BH195" s="1"/>
+      <c r="BI195" s="1"/>
+      <c r="BJ195" s="1"/>
+      <c r="BK195" s="1"/>
+      <c r="BL195" s="1"/>
+      <c r="BM195" s="1"/>
+      <c r="BN195" s="1"/>
+      <c r="BO195" s="1"/>
+      <c r="BP195" s="1"/>
+      <c r="BQ195" s="1"/>
+      <c r="BR195" s="1"/>
+      <c r="BS195" s="1"/>
+      <c r="BT195" s="1"/>
+      <c r="BU195" s="1"/>
+      <c r="BV195" s="1"/>
+      <c r="BW195" s="1"/>
+      <c r="BX195" s="1"/>
+      <c r="BY195" s="1"/>
+      <c r="BZ195" s="1"/>
+      <c r="CA195" s="1"/>
+      <c r="CB195" s="1"/>
+      <c r="CC195" s="1"/>
+      <c r="CD195" s="1"/>
+      <c r="CE195" s="1"/>
+      <c r="CF195" s="1"/>
+      <c r="CG195" s="1"/>
+      <c r="CH195" s="1"/>
+      <c r="CI195" s="1"/>
+      <c r="CJ195" s="1"/>
+      <c r="CK195" s="1"/>
+      <c r="CL195" s="1"/>
+      <c r="CM195" s="1"/>
+      <c r="CN195" s="1"/>
+      <c r="CO195" s="1"/>
+      <c r="CP195" s="1"/>
+      <c r="CQ195" s="1"/>
+      <c r="CR195" s="1"/>
+      <c r="CS195" s="1"/>
+      <c r="CT195" s="1"/>
+      <c r="CU195" s="1"/>
+      <c r="CV195" s="1"/>
+    </row>
+    <row r="196" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+      <c r="G196" s="1"/>
+      <c r="H196" s="1"/>
+      <c r="I196" s="1"/>
+      <c r="J196" s="1"/>
+      <c r="K196" s="1"/>
+      <c r="L196" s="1"/>
+      <c r="M196" s="1"/>
+      <c r="N196" s="1"/>
+      <c r="O196" s="1"/>
+      <c r="P196" s="1"/>
+      <c r="Q196" s="1"/>
+      <c r="R196" s="1"/>
+      <c r="S196" s="1"/>
+      <c r="T196" s="1"/>
+      <c r="U196" s="1"/>
+      <c r="V196" s="1"/>
+      <c r="W196" s="1"/>
+      <c r="X196" s="1"/>
+      <c r="Y196" s="1"/>
+      <c r="Z196" s="1"/>
+      <c r="AA196" s="1"/>
+      <c r="AB196" s="1"/>
+      <c r="AC196" s="1"/>
+      <c r="AD196" s="1"/>
+      <c r="AE196" s="1"/>
+      <c r="AF196" s="1"/>
+      <c r="AG196" s="1"/>
+      <c r="AH196" s="1"/>
+      <c r="AI196" s="1"/>
+      <c r="AJ196" s="1"/>
+      <c r="AK196" s="1"/>
+      <c r="AL196" s="1"/>
+      <c r="AM196" s="1"/>
+      <c r="AN196" s="1"/>
+      <c r="AO196" s="1"/>
+      <c r="AP196" s="1"/>
+      <c r="AQ196" s="1"/>
+      <c r="AR196" s="1"/>
+      <c r="AS196" s="1"/>
+      <c r="AT196" s="1"/>
+      <c r="AU196" s="1"/>
+      <c r="AV196" s="1"/>
+      <c r="AW196" s="1"/>
+      <c r="AX196" s="1"/>
+      <c r="AY196" s="1"/>
+      <c r="AZ196" s="1"/>
+      <c r="BA196" s="1"/>
+      <c r="BB196" s="1"/>
+      <c r="BC196" s="1"/>
+      <c r="BD196" s="1"/>
+      <c r="BE196" s="1"/>
+      <c r="BF196" s="1"/>
+      <c r="BG196" s="1"/>
+      <c r="BH196" s="1"/>
+      <c r="BI196" s="1"/>
+      <c r="BJ196" s="1"/>
+      <c r="BK196" s="1"/>
+      <c r="BL196" s="1"/>
+      <c r="BM196" s="1"/>
+      <c r="BN196" s="1"/>
+      <c r="BO196" s="1"/>
+      <c r="BP196" s="1"/>
+      <c r="BQ196" s="1"/>
+      <c r="BR196" s="1"/>
+      <c r="BS196" s="1"/>
+      <c r="BT196" s="1"/>
+      <c r="BU196" s="1"/>
+      <c r="BV196" s="1"/>
+      <c r="BW196" s="1"/>
+      <c r="BX196" s="1"/>
+      <c r="BY196" s="1"/>
+      <c r="BZ196" s="1"/>
+      <c r="CA196" s="1"/>
+      <c r="CB196" s="1"/>
+      <c r="CC196" s="1"/>
+      <c r="CD196" s="1"/>
+      <c r="CE196" s="1"/>
+      <c r="CF196" s="1"/>
+      <c r="CG196" s="1"/>
+      <c r="CH196" s="1"/>
+      <c r="CI196" s="1"/>
+      <c r="CJ196" s="1"/>
+      <c r="CK196" s="1"/>
+      <c r="CL196" s="1"/>
+      <c r="CM196" s="1"/>
+      <c r="CN196" s="1"/>
+      <c r="CO196" s="1"/>
+      <c r="CP196" s="1"/>
+      <c r="CQ196" s="1"/>
+      <c r="CR196" s="1"/>
+      <c r="CS196" s="1"/>
+      <c r="CT196" s="1"/>
+      <c r="CU196" s="1"/>
+      <c r="CV196" s="1"/>
+    </row>
+    <row r="197" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
+      <c r="G197" s="1"/>
+      <c r="H197" s="1"/>
+      <c r="I197" s="1"/>
+      <c r="J197" s="1"/>
+      <c r="K197" s="1"/>
+      <c r="L197" s="1"/>
+      <c r="M197" s="1"/>
+      <c r="N197" s="1"/>
+      <c r="O197" s="1"/>
+      <c r="P197" s="1"/>
+      <c r="Q197" s="1"/>
+      <c r="R197" s="1"/>
+      <c r="S197" s="1"/>
+      <c r="T197" s="1"/>
+      <c r="U197" s="1"/>
+      <c r="V197" s="1"/>
+      <c r="W197" s="1"/>
+      <c r="X197" s="1"/>
+      <c r="Y197" s="1"/>
+      <c r="Z197" s="1"/>
+      <c r="AA197" s="1"/>
+      <c r="AB197" s="1"/>
+      <c r="AC197" s="1"/>
+      <c r="AD197" s="1"/>
+      <c r="AE197" s="1"/>
+      <c r="AF197" s="1"/>
+      <c r="AG197" s="1"/>
+      <c r="AH197" s="1"/>
+      <c r="AI197" s="1"/>
+      <c r="AJ197" s="1"/>
+      <c r="AK197" s="1"/>
+      <c r="AL197" s="1"/>
+      <c r="AM197" s="1"/>
+      <c r="AN197" s="1"/>
+      <c r="AO197" s="1"/>
+      <c r="AP197" s="1"/>
+      <c r="AQ197" s="1"/>
+      <c r="AR197" s="1"/>
+      <c r="AS197" s="1"/>
+      <c r="AT197" s="1"/>
+      <c r="AU197" s="1"/>
+      <c r="AV197" s="1"/>
+      <c r="AW197" s="1"/>
+      <c r="AX197" s="1"/>
+      <c r="AY197" s="1"/>
+      <c r="AZ197" s="1"/>
+      <c r="BA197" s="1"/>
+      <c r="BB197" s="1"/>
+      <c r="BC197" s="1"/>
+      <c r="BD197" s="1"/>
+      <c r="BE197" s="1"/>
+      <c r="BF197" s="1"/>
+      <c r="BG197" s="1"/>
+      <c r="BH197" s="1"/>
+      <c r="BI197" s="1"/>
+      <c r="BJ197" s="1"/>
+      <c r="BK197" s="1"/>
+      <c r="BL197" s="1"/>
+      <c r="BM197" s="1"/>
+      <c r="BN197" s="1"/>
+      <c r="BO197" s="1"/>
+      <c r="BP197" s="1"/>
+      <c r="BQ197" s="1"/>
+      <c r="BR197" s="1"/>
+      <c r="BS197" s="1"/>
+      <c r="BT197" s="1"/>
+      <c r="BU197" s="1"/>
+      <c r="BV197" s="1"/>
+      <c r="BW197" s="1"/>
+      <c r="BX197" s="1"/>
+      <c r="BY197" s="1"/>
+      <c r="BZ197" s="1"/>
+      <c r="CA197" s="1"/>
+      <c r="CB197" s="1"/>
+      <c r="CC197" s="1"/>
+      <c r="CD197" s="1"/>
+      <c r="CE197" s="1"/>
+      <c r="CF197" s="1"/>
+      <c r="CG197" s="1"/>
+      <c r="CH197" s="1"/>
+      <c r="CI197" s="1"/>
+      <c r="CJ197" s="1"/>
+      <c r="CK197" s="1"/>
+      <c r="CL197" s="1"/>
+      <c r="CM197" s="1"/>
+      <c r="CN197" s="1"/>
+      <c r="CO197" s="1"/>
+      <c r="CP197" s="1"/>
+      <c r="CQ197" s="1"/>
+      <c r="CR197" s="1"/>
+      <c r="CS197" s="1"/>
+      <c r="CT197" s="1"/>
+      <c r="CU197" s="1"/>
+      <c r="CV197" s="1"/>
+    </row>
+    <row r="198" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
+      <c r="G198" s="1"/>
+      <c r="H198" s="1"/>
+      <c r="I198" s="1"/>
+      <c r="J198" s="1"/>
+      <c r="K198" s="1"/>
+      <c r="L198" s="1"/>
+      <c r="M198" s="1"/>
+      <c r="N198" s="1"/>
+      <c r="O198" s="1"/>
+      <c r="P198" s="1"/>
+      <c r="Q198" s="1"/>
+      <c r="R198" s="1"/>
+      <c r="S198" s="1"/>
+      <c r="T198" s="1"/>
+      <c r="U198" s="1"/>
+      <c r="V198" s="1"/>
+      <c r="W198" s="1"/>
+      <c r="X198" s="1"/>
+      <c r="Y198" s="1"/>
+      <c r="Z198" s="1"/>
+      <c r="AA198" s="1"/>
+      <c r="AB198" s="1"/>
+      <c r="AC198" s="1"/>
+      <c r="AD198" s="1"/>
+      <c r="AE198" s="1"/>
+      <c r="AF198" s="1"/>
+      <c r="AG198" s="1"/>
+      <c r="AH198" s="1"/>
+      <c r="AI198" s="1"/>
+      <c r="AJ198" s="1"/>
+      <c r="AK198" s="1"/>
+      <c r="AL198" s="1"/>
+      <c r="AM198" s="1"/>
+      <c r="AN198" s="1"/>
+      <c r="AO198" s="1"/>
+      <c r="AP198" s="1"/>
+      <c r="AQ198" s="1"/>
+      <c r="AR198" s="1"/>
+      <c r="AS198" s="1"/>
+      <c r="AT198" s="1"/>
+      <c r="AU198" s="1"/>
+      <c r="AV198" s="1"/>
+      <c r="AW198" s="1"/>
+      <c r="AX198" s="1"/>
+      <c r="AY198" s="1"/>
+      <c r="AZ198" s="1"/>
+      <c r="BA198" s="1"/>
+      <c r="BB198" s="1"/>
+      <c r="BC198" s="1"/>
+      <c r="BD198" s="1"/>
+      <c r="BE198" s="1"/>
+      <c r="BF198" s="1"/>
+      <c r="BG198" s="1"/>
+      <c r="BH198" s="1"/>
+      <c r="BI198" s="1"/>
+      <c r="BJ198" s="1"/>
+      <c r="BK198" s="1"/>
+      <c r="BL198" s="1"/>
+      <c r="BM198" s="1"/>
+      <c r="BN198" s="1"/>
+      <c r="BO198" s="1"/>
+      <c r="BP198" s="1"/>
+      <c r="BQ198" s="1"/>
+      <c r="BR198" s="1"/>
+      <c r="BS198" s="1"/>
+      <c r="BT198" s="1"/>
+      <c r="BU198" s="1"/>
+      <c r="BV198" s="1"/>
+      <c r="BW198" s="1"/>
+      <c r="BX198" s="1"/>
+      <c r="BY198" s="1"/>
+      <c r="BZ198" s="1"/>
+      <c r="CA198" s="1"/>
+      <c r="CB198" s="1"/>
+      <c r="CC198" s="1"/>
+      <c r="CD198" s="1"/>
+      <c r="CE198" s="1"/>
+      <c r="CF198" s="1"/>
+      <c r="CG198" s="1"/>
+      <c r="CH198" s="1"/>
+      <c r="CI198" s="1"/>
+      <c r="CJ198" s="1"/>
+      <c r="CK198" s="1"/>
+      <c r="CL198" s="1"/>
+      <c r="CM198" s="1"/>
+      <c r="CN198" s="1"/>
+      <c r="CO198" s="1"/>
+      <c r="CP198" s="1"/>
+      <c r="CQ198" s="1"/>
+      <c r="CR198" s="1"/>
+      <c r="CS198" s="1"/>
+      <c r="CT198" s="1"/>
+      <c r="CU198" s="1"/>
+      <c r="CV198" s="1"/>
+    </row>
+    <row r="199" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+      <c r="G199" s="1"/>
+      <c r="H199" s="1"/>
+      <c r="I199" s="1"/>
+      <c r="J199" s="1"/>
+      <c r="K199" s="1"/>
+      <c r="L199" s="1"/>
+      <c r="M199" s="1"/>
+      <c r="N199" s="1"/>
+      <c r="O199" s="1"/>
+      <c r="P199" s="1"/>
+      <c r="Q199" s="1"/>
+      <c r="R199" s="1"/>
+      <c r="S199" s="1"/>
+      <c r="T199" s="1"/>
+      <c r="U199" s="1"/>
+      <c r="V199" s="1"/>
+      <c r="W199" s="1"/>
+      <c r="X199" s="1"/>
+      <c r="Y199" s="1"/>
+      <c r="Z199" s="1"/>
+      <c r="AA199" s="1"/>
+      <c r="AB199" s="1"/>
+      <c r="AC199" s="1"/>
+      <c r="AD199" s="1"/>
+      <c r="AE199" s="1"/>
+      <c r="AF199" s="1"/>
+      <c r="AG199" s="1"/>
+      <c r="AH199" s="1"/>
+      <c r="AI199" s="1"/>
+      <c r="AJ199" s="1"/>
+      <c r="AK199" s="1"/>
+      <c r="AL199" s="1"/>
+      <c r="AM199" s="1"/>
+      <c r="AN199" s="1"/>
+      <c r="AO199" s="1"/>
+      <c r="AP199" s="1"/>
+      <c r="AQ199" s="1"/>
+      <c r="AR199" s="1"/>
+      <c r="AS199" s="1"/>
+      <c r="AT199" s="1"/>
+      <c r="AU199" s="1"/>
+      <c r="AV199" s="1"/>
+      <c r="AW199" s="1"/>
+      <c r="AX199" s="1"/>
+      <c r="AY199" s="1"/>
+      <c r="AZ199" s="1"/>
+      <c r="BA199" s="1"/>
+      <c r="BB199" s="1"/>
+      <c r="BC199" s="1"/>
+      <c r="BD199" s="1"/>
+      <c r="BE199" s="1"/>
+      <c r="BF199" s="1"/>
+      <c r="BG199" s="1"/>
+      <c r="BH199" s="1"/>
+      <c r="BI199" s="1"/>
+      <c r="BJ199" s="1"/>
+      <c r="BK199" s="1"/>
+      <c r="BL199" s="1"/>
+      <c r="BM199" s="1"/>
+      <c r="BN199" s="1"/>
+      <c r="BO199" s="1"/>
+      <c r="BP199" s="1"/>
+      <c r="BQ199" s="1"/>
+      <c r="BR199" s="1"/>
+      <c r="BS199" s="1"/>
+      <c r="BT199" s="1"/>
+      <c r="BU199" s="1"/>
+      <c r="BV199" s="1"/>
+      <c r="BW199" s="1"/>
+      <c r="BX199" s="1"/>
+      <c r="BY199" s="1"/>
+      <c r="BZ199" s="1"/>
+      <c r="CA199" s="1"/>
+      <c r="CB199" s="1"/>
+      <c r="CC199" s="1"/>
+      <c r="CD199" s="1"/>
+      <c r="CE199" s="1"/>
+      <c r="CF199" s="1"/>
+      <c r="CG199" s="1"/>
+      <c r="CH199" s="1"/>
+      <c r="CI199" s="1"/>
+      <c r="CJ199" s="1"/>
+      <c r="CK199" s="1"/>
+      <c r="CL199" s="1"/>
+      <c r="CM199" s="1"/>
+      <c r="CN199" s="1"/>
+      <c r="CO199" s="1"/>
+      <c r="CP199" s="1"/>
+      <c r="CQ199" s="1"/>
+      <c r="CR199" s="1"/>
+      <c r="CS199" s="1"/>
+      <c r="CT199" s="1"/>
+      <c r="CU199" s="1"/>
+      <c r="CV199" s="1"/>
+    </row>
+    <row r="200" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
+      <c r="G200" s="1"/>
+      <c r="H200" s="1"/>
+      <c r="I200" s="1"/>
+      <c r="J200" s="1"/>
+      <c r="K200" s="1"/>
+      <c r="L200" s="1"/>
+      <c r="M200" s="1"/>
+      <c r="N200" s="1"/>
+      <c r="O200" s="1"/>
+      <c r="P200" s="1"/>
+      <c r="Q200" s="1"/>
+      <c r="R200" s="1"/>
+      <c r="S200" s="1"/>
+      <c r="T200" s="1"/>
+      <c r="U200" s="1"/>
+      <c r="V200" s="1"/>
+      <c r="W200" s="1"/>
+      <c r="X200" s="1"/>
+      <c r="Y200" s="1"/>
+      <c r="Z200" s="1"/>
+      <c r="AA200" s="1"/>
+      <c r="AB200" s="1"/>
+      <c r="AC200" s="1"/>
+      <c r="AD200" s="1"/>
+      <c r="AE200" s="1"/>
+      <c r="AF200" s="1"/>
+      <c r="AG200" s="1"/>
+      <c r="AH200" s="1"/>
+      <c r="AI200" s="1"/>
+      <c r="AJ200" s="1"/>
+      <c r="AK200" s="1"/>
+      <c r="AL200" s="1"/>
+      <c r="AM200" s="1"/>
+      <c r="AN200" s="1"/>
+      <c r="AO200" s="1"/>
+      <c r="AP200" s="1"/>
+      <c r="AQ200" s="1"/>
+      <c r="AR200" s="1"/>
+      <c r="AS200" s="1"/>
+      <c r="AT200" s="1"/>
+      <c r="AU200" s="1"/>
+      <c r="AV200" s="1"/>
+      <c r="AW200" s="1"/>
+      <c r="AX200" s="1"/>
+      <c r="AY200" s="1"/>
+      <c r="AZ200" s="1"/>
+      <c r="BA200" s="1"/>
+      <c r="BB200" s="1"/>
+      <c r="BC200" s="1"/>
+      <c r="BD200" s="1"/>
+      <c r="BE200" s="1"/>
+      <c r="BF200" s="1"/>
+      <c r="BG200" s="1"/>
+      <c r="BH200" s="1"/>
+      <c r="BI200" s="1"/>
+      <c r="BJ200" s="1"/>
+      <c r="BK200" s="1"/>
+      <c r="BL200" s="1"/>
+      <c r="BM200" s="1"/>
+      <c r="BN200" s="1"/>
+      <c r="BO200" s="1"/>
+      <c r="BP200" s="1"/>
+      <c r="BQ200" s="1"/>
+      <c r="BR200" s="1"/>
+      <c r="BS200" s="1"/>
+      <c r="BT200" s="1"/>
+      <c r="BU200" s="1"/>
+      <c r="BV200" s="1"/>
+      <c r="BW200" s="1"/>
+      <c r="BX200" s="1"/>
+      <c r="BY200" s="1"/>
+      <c r="BZ200" s="1"/>
+      <c r="CA200" s="1"/>
+      <c r="CB200" s="1"/>
+      <c r="CC200" s="1"/>
+      <c r="CD200" s="1"/>
+      <c r="CE200" s="1"/>
+      <c r="CF200" s="1"/>
+      <c r="CG200" s="1"/>
+      <c r="CH200" s="1"/>
+      <c r="CI200" s="1"/>
+      <c r="CJ200" s="1"/>
+      <c r="CK200" s="1"/>
+      <c r="CL200" s="1"/>
+      <c r="CM200" s="1"/>
+      <c r="CN200" s="1"/>
+      <c r="CO200" s="1"/>
+      <c r="CP200" s="1"/>
+      <c r="CQ200" s="1"/>
+      <c r="CR200" s="1"/>
+      <c r="CS200" s="1"/>
+      <c r="CT200" s="1"/>
+      <c r="CU200" s="1"/>
+      <c r="CV200" s="1"/>
+      <c r="CW200" s="1"/>
+    </row>
+    <row r="201" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CV201" s="1"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>